--- a/data_month/zb/国内贸易/限额以上住宿和餐饮业经营情况(-2009).xlsx
+++ b/data_month/zb/国内贸易/限额以上住宿和餐饮业经营情况(-2009).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC49"/>
+  <dimension ref="A1:AJ49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,4373 +574,5416 @@
           <t>限额以上餐饮业营业额_累计增长</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>限额以上住宿业营业额</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>限额以上住宿和餐饮业其他收入</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>限额以上住宿和餐饮业商品销售收入</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>限额以上住宿和餐饮业客房收入</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>限额以上住宿和餐饮业营业额</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>限额以上住宿和餐饮业餐费收入</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>限额以上餐饮业营业额</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2006年10月</t>
+          <t>2006-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17.6</v>
+        <v>12.5</v>
       </c>
       <c r="C2" t="n">
-        <v>142.5</v>
+        <v>111.8</v>
       </c>
       <c r="D2" t="n">
-        <v>1206.6</v>
+        <v>111.8</v>
       </c>
       <c r="E2" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="F2" t="n">
-        <v>11.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G2" t="n">
+        <v>13</v>
+      </c>
+      <c r="H2" t="n">
+        <v>13</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J2" t="n">
         <v>16.7</v>
       </c>
-      <c r="H2" t="n">
-        <v>139.1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J2" t="n">
-        <v>12.3</v>
-      </c>
       <c r="K2" t="n">
-        <v>9.199999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="L2" t="n">
-        <v>74.2</v>
+        <v>7.7</v>
       </c>
       <c r="M2" t="n">
-        <v>9.1</v>
+        <v>16.7</v>
       </c>
       <c r="N2" t="n">
-        <v>10.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>74.2</v>
+        <v>54.7</v>
       </c>
       <c r="P2" t="n">
-        <v>648.5</v>
+        <v>54.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="R2" t="n">
-        <v>18.8</v>
+        <v>14.1</v>
       </c>
       <c r="S2" t="n">
-        <v>287.5</v>
+        <v>240.6</v>
       </c>
       <c r="T2" t="n">
-        <v>2457.8</v>
+        <v>240.6</v>
       </c>
       <c r="U2" t="n">
-        <v>15.3</v>
+        <v>14.1</v>
       </c>
       <c r="V2" t="n">
-        <v>23.7</v>
+        <v>15.9</v>
       </c>
       <c r="W2" t="n">
-        <v>187.4</v>
+        <v>165.2</v>
       </c>
       <c r="X2" t="n">
-        <v>1596</v>
+        <v>165.2</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.8</v>
+        <v>15.9</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.9</v>
+        <v>15.6</v>
       </c>
       <c r="AA2" t="n">
-        <v>145</v>
+        <v>128.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>1251.2</v>
+        <v>128.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>111.8</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>240.6</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>165.2</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>128.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2006年11月</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.2</v>
+        <v>13.8</v>
       </c>
       <c r="C3" t="n">
-        <v>132.3</v>
+        <v>104.6</v>
       </c>
       <c r="D3" t="n">
-        <v>1338.9</v>
+        <v>216.4</v>
       </c>
       <c r="E3" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="L3" t="n">
         <v>14.6</v>
       </c>
-      <c r="F3" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="G3" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="H3" t="n">
-        <v>154</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="L3" t="n">
-        <v>82.09999999999999</v>
-      </c>
       <c r="M3" t="n">
-        <v>8.699999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="N3" t="n">
-        <v>11.3</v>
+        <v>14.6</v>
       </c>
       <c r="O3" t="n">
-        <v>71.90000000000001</v>
+        <v>49.5</v>
       </c>
       <c r="P3" t="n">
-        <v>720.4</v>
+        <v>104.2</v>
       </c>
       <c r="Q3" t="n">
+        <v>12</v>
+      </c>
+      <c r="R3" t="n">
         <v>12.2</v>
       </c>
-      <c r="R3" t="n">
-        <v>18.9</v>
-      </c>
       <c r="S3" t="n">
-        <v>269</v>
+        <v>228</v>
       </c>
       <c r="T3" t="n">
-        <v>2726.8</v>
+        <v>468.6</v>
       </c>
       <c r="U3" t="n">
-        <v>15.6</v>
+        <v>13.2</v>
       </c>
       <c r="V3" t="n">
-        <v>24</v>
+        <v>12.1</v>
       </c>
       <c r="W3" t="n">
-        <v>174.3</v>
+        <v>158.9</v>
       </c>
       <c r="X3" t="n">
-        <v>1770.3</v>
+        <v>324.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.4</v>
+        <v>14</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.7</v>
+        <v>10.9</v>
       </c>
       <c r="AA3" t="n">
-        <v>136.7</v>
+        <v>123.4</v>
       </c>
       <c r="AB3" t="n">
-        <v>1387.9</v>
+        <v>252.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>16.7</v>
+        <v>13.2</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>104.6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>6.899999999999999</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>228</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>158.9</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>123.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.4</v>
+        <v>14.1</v>
       </c>
       <c r="C4" t="n">
-        <v>135.1</v>
+        <v>113.9</v>
       </c>
       <c r="D4" t="n">
-        <v>1474</v>
+        <v>330.7</v>
       </c>
       <c r="E4" t="n">
-        <v>14.4</v>
+        <v>13.9</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.1</v>
+        <v>2.7</v>
       </c>
       <c r="G4" t="n">
-        <v>18.2</v>
+        <v>13.1</v>
       </c>
       <c r="H4" t="n">
-        <v>172.2</v>
+        <v>38.9</v>
       </c>
       <c r="I4" t="n">
-        <v>5.2</v>
+        <v>7.2</v>
       </c>
       <c r="J4" t="n">
-        <v>14.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="L4" t="n">
-        <v>91.09999999999999</v>
+        <v>21.1</v>
       </c>
       <c r="M4" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="N4" t="n">
-        <v>8.699999999999999</v>
+        <v>12.1</v>
       </c>
       <c r="O4" t="n">
-        <v>69.2</v>
+        <v>63.7</v>
       </c>
       <c r="P4" t="n">
-        <v>789.6</v>
+        <v>168</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.9</v>
+        <v>12.5</v>
       </c>
       <c r="R4" t="n">
-        <v>18.5</v>
+        <v>13.8</v>
       </c>
       <c r="S4" t="n">
-        <v>285</v>
+        <v>230.6</v>
       </c>
       <c r="T4" t="n">
-        <v>3011.8</v>
+        <v>699.5</v>
       </c>
       <c r="U4" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="V4" t="n">
         <v>15.9</v>
       </c>
-      <c r="V4" t="n">
-        <v>25.4</v>
-      </c>
       <c r="W4" t="n">
-        <v>188.6</v>
+        <v>147.3</v>
       </c>
       <c r="X4" t="n">
-        <v>1958.9</v>
+        <v>471.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>19</v>
+        <v>15.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>24.6</v>
+        <v>13.4</v>
       </c>
       <c r="AA4" t="n">
-        <v>149.9</v>
+        <v>116.7</v>
       </c>
       <c r="AB4" t="n">
-        <v>1537.8</v>
+        <v>368.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>17.4</v>
+        <v>13.9</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>114.3</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>6.500000000000002</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>230.9</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>147.4</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>116.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2006年1月</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>111.8</v>
+        <v>120.4</v>
       </c>
       <c r="D5" t="n">
-        <v>111.8</v>
+        <v>451.1</v>
       </c>
       <c r="E5" t="n">
-        <v>12.5</v>
+        <v>13.7</v>
       </c>
       <c r="F5" t="n">
-        <v>9.199999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="G5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="H5" t="n">
-        <v>13</v>
+        <v>52.4</v>
       </c>
       <c r="I5" t="n">
-        <v>9.199999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="J5" t="n">
-        <v>16.7</v>
+        <v>11.6</v>
       </c>
       <c r="K5" t="n">
-        <v>7.7</v>
+        <v>6.6</v>
       </c>
       <c r="L5" t="n">
-        <v>7.7</v>
+        <v>27.7</v>
       </c>
       <c r="M5" t="n">
-        <v>16.7</v>
+        <v>11.1</v>
       </c>
       <c r="N5" t="n">
-        <v>9.800000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="O5" t="n">
-        <v>54.7</v>
+        <v>68.7</v>
       </c>
       <c r="P5" t="n">
-        <v>54.7</v>
+        <v>236.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="R5" t="n">
-        <v>14.1</v>
+        <v>14.8</v>
       </c>
       <c r="S5" t="n">
-        <v>240.6</v>
+        <v>237.7</v>
       </c>
       <c r="T5" t="n">
-        <v>240.6</v>
+        <v>937.2</v>
       </c>
       <c r="U5" t="n">
         <v>14.1</v>
       </c>
       <c r="V5" t="n">
-        <v>15.9</v>
+        <v>17.9</v>
       </c>
       <c r="W5" t="n">
-        <v>165.2</v>
+        <v>148.9</v>
       </c>
       <c r="X5" t="n">
-        <v>165.2</v>
+        <v>620.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>15.6</v>
+        <v>16.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>128.8</v>
+        <v>117.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>128.8</v>
+        <v>486.1</v>
       </c>
       <c r="AC5" t="n">
-        <v>15.6</v>
+        <v>14.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>120.4</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>6.599999999999998</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>68.69999999999999</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>237.7</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>117.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年2月</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.8</v>
+        <v>14.9</v>
       </c>
       <c r="C6" t="n">
-        <v>104.6</v>
+        <v>121.8</v>
       </c>
       <c r="D6" t="n">
-        <v>216.4</v>
+        <v>572.9</v>
       </c>
       <c r="E6" t="n">
-        <v>13.1</v>
+        <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>9.5</v>
+        <v>4.6</v>
       </c>
       <c r="G6" t="n">
-        <v>12.7</v>
+        <v>13.6</v>
       </c>
       <c r="H6" t="n">
-        <v>25.7</v>
+        <v>66</v>
       </c>
       <c r="I6" t="n">
-        <v>9.4</v>
+        <v>6.1</v>
       </c>
       <c r="J6" t="n">
-        <v>4.5</v>
+        <v>11.3</v>
       </c>
       <c r="K6" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="L6" t="n">
-        <v>14.6</v>
+        <v>34.3</v>
       </c>
       <c r="M6" t="n">
-        <v>10.6</v>
+        <v>11.2</v>
       </c>
       <c r="N6" t="n">
-        <v>14.6</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>49.5</v>
+        <v>67.2</v>
       </c>
       <c r="P6" t="n">
-        <v>104.2</v>
+        <v>303.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="R6" t="n">
-        <v>12.2</v>
+        <v>14.5</v>
       </c>
       <c r="S6" t="n">
-        <v>228</v>
+        <v>246.5</v>
       </c>
       <c r="T6" t="n">
-        <v>468.6</v>
+        <v>1183.7</v>
       </c>
       <c r="U6" t="n">
-        <v>13.2</v>
+        <v>14.2</v>
       </c>
       <c r="V6" t="n">
-        <v>12.1</v>
+        <v>16.2</v>
       </c>
       <c r="W6" t="n">
-        <v>158.9</v>
+        <v>159.1</v>
       </c>
       <c r="X6" t="n">
-        <v>324.1</v>
+        <v>779.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>14</v>
+        <v>15.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>10.9</v>
+        <v>14.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>123.4</v>
+        <v>124.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>252.2</v>
+        <v>610.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.2</v>
+        <v>14.4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>6.599999999999998</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>67.19999999999999</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>246.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>159.1</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>124.6999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2006年3月</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B7" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>116.8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>689.7</v>
+      </c>
+      <c r="E7" t="n">
         <v>14.1</v>
       </c>
-      <c r="C7" t="n">
-        <v>113.9</v>
-      </c>
-      <c r="D7" t="n">
-        <v>330.7</v>
-      </c>
-      <c r="E7" t="n">
-        <v>13.9</v>
-      </c>
       <c r="F7" t="n">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="G7" t="n">
-        <v>13.1</v>
+        <v>13.6</v>
       </c>
       <c r="H7" t="n">
-        <v>38.9</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>7.2</v>
+        <v>5.7</v>
       </c>
       <c r="J7" t="n">
-        <v>8.800000000000001</v>
+        <v>4.4</v>
       </c>
       <c r="K7" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="L7" t="n">
-        <v>21.1</v>
+        <v>41.2</v>
       </c>
       <c r="M7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N7" t="n">
-        <v>12.1</v>
+        <v>13.5</v>
       </c>
       <c r="O7" t="n">
-        <v>63.7</v>
+        <v>65</v>
       </c>
       <c r="P7" t="n">
-        <v>168</v>
+        <v>368.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="R7" t="n">
-        <v>13.8</v>
+        <v>14.6</v>
       </c>
       <c r="S7" t="n">
-        <v>230.6</v>
+        <v>232.5</v>
       </c>
       <c r="T7" t="n">
-        <v>699.5</v>
+        <v>1416.2</v>
       </c>
       <c r="U7" t="n">
-        <v>13.9</v>
+        <v>14.3</v>
       </c>
       <c r="V7" t="n">
-        <v>15.9</v>
+        <v>16.8</v>
       </c>
       <c r="W7" t="n">
-        <v>147.3</v>
+        <v>147</v>
       </c>
       <c r="X7" t="n">
-        <v>471.5</v>
+        <v>926.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.2</v>
+        <v>16.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>13.4</v>
+        <v>14.6</v>
       </c>
       <c r="AA7" t="n">
-        <v>116.7</v>
+        <v>115.7</v>
       </c>
       <c r="AB7" t="n">
-        <v>368.8</v>
+        <v>726.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>13.9</v>
+        <v>14.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>116.8000000000001</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>13.59999999999999</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>6.900000000000006</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>232.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>147</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>115.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年4月</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="C8" t="n">
-        <v>120.4</v>
+        <v>118.3</v>
       </c>
       <c r="D8" t="n">
-        <v>451.1</v>
+        <v>808.2</v>
       </c>
       <c r="E8" t="n">
+        <v>14</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="H8" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L8" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="M8" t="n">
+        <v>9</v>
+      </c>
+      <c r="N8" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="P8" t="n">
+        <v>434.8</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>240.2</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1656.5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="W8" t="n">
+        <v>153.9</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1080.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>121.9</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>848.3</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>118.5</v>
+      </c>
+      <c r="AE8" t="n">
         <v>13.7</v>
       </c>
-      <c r="F8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="G8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K8" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L8" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="M8" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="O8" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="P8" t="n">
-        <v>236.7</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>12</v>
-      </c>
-      <c r="R8" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="S8" t="n">
-        <v>237.7</v>
-      </c>
-      <c r="T8" t="n">
-        <v>937.2</v>
-      </c>
-      <c r="U8" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="V8" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="W8" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="X8" t="n">
-        <v>620.4</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>117.3</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>486.1</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>14.5</v>
+      <c r="AF8" t="n">
+        <v>6.699999999999996</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>65.90000000000003</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>240.3</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>154</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>121.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2006年5月</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>14.9</v>
       </c>
       <c r="C9" t="n">
-        <v>121.8</v>
+        <v>122</v>
       </c>
       <c r="D9" t="n">
-        <v>572.9</v>
+        <v>930.2</v>
       </c>
       <c r="E9" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="F9" t="n">
-        <v>4.6</v>
+        <v>6.1</v>
       </c>
       <c r="G9" t="n">
-        <v>13.6</v>
+        <v>14.3</v>
       </c>
       <c r="H9" t="n">
-        <v>66</v>
+        <v>107.6</v>
       </c>
       <c r="I9" t="n">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="J9" t="n">
-        <v>11.3</v>
+        <v>6.7</v>
       </c>
       <c r="K9" t="n">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="L9" t="n">
-        <v>34.3</v>
+        <v>55.2</v>
       </c>
       <c r="M9" t="n">
-        <v>11.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="O9" t="n">
-        <v>67.2</v>
+        <v>68.3</v>
       </c>
       <c r="P9" t="n">
-        <v>303.9</v>
+        <v>503.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="R9" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="S9" t="n">
-        <v>246.5</v>
+        <v>251.6</v>
       </c>
       <c r="T9" t="n">
-        <v>1183.7</v>
+        <v>1908.1</v>
       </c>
       <c r="U9" t="n">
-        <v>14.2</v>
+        <v>14.7</v>
       </c>
       <c r="V9" t="n">
-        <v>16.2</v>
+        <v>19.6</v>
       </c>
       <c r="W9" t="n">
-        <v>159.1</v>
+        <v>161.7</v>
       </c>
       <c r="X9" t="n">
-        <v>779.5</v>
+        <v>1242.2</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.9</v>
+        <v>16.9</v>
       </c>
       <c r="Z9" t="n">
-        <v>14.1</v>
+        <v>18</v>
       </c>
       <c r="AA9" t="n">
-        <v>124.7</v>
+        <v>129.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>610.8</v>
+        <v>977.9</v>
       </c>
       <c r="AC9" t="n">
-        <v>14.4</v>
+        <v>15.3</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>122</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>7.300000000000004</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>68.30000000000001</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>251.5999999999999</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>129.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2006年6月</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.7</v>
+        <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>116.8</v>
+        <v>133.9</v>
       </c>
       <c r="D10" t="n">
-        <v>689.7</v>
+        <v>1064.1</v>
       </c>
       <c r="E10" t="n">
         <v>14.1</v>
       </c>
       <c r="F10" t="n">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="G10" t="n">
-        <v>13.6</v>
+        <v>14.8</v>
       </c>
       <c r="H10" t="n">
-        <v>79.59999999999999</v>
+        <v>122.4</v>
       </c>
       <c r="I10" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>4.4</v>
+        <v>8.6</v>
       </c>
       <c r="K10" t="n">
-        <v>6.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L10" t="n">
-        <v>41.2</v>
+        <v>65</v>
       </c>
       <c r="M10" t="n">
-        <v>10</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="N10" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="O10" t="n">
-        <v>65</v>
+        <v>71.2</v>
       </c>
       <c r="P10" t="n">
-        <v>368.9</v>
+        <v>574.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="R10" t="n">
-        <v>14.6</v>
+        <v>15.7</v>
       </c>
       <c r="S10" t="n">
-        <v>232.5</v>
+        <v>262.2</v>
       </c>
       <c r="T10" t="n">
-        <v>1416.2</v>
+        <v>2170.3</v>
       </c>
       <c r="U10" t="n">
-        <v>14.3</v>
+        <v>14.8</v>
       </c>
       <c r="V10" t="n">
-        <v>16.8</v>
+        <v>18.5</v>
       </c>
       <c r="W10" t="n">
-        <v>147</v>
+        <v>166.4</v>
       </c>
       <c r="X10" t="n">
-        <v>926.5</v>
+        <v>1408.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.1</v>
+        <v>17.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>14.6</v>
+        <v>17.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>115.7</v>
+        <v>128.3</v>
       </c>
       <c r="AB10" t="n">
-        <v>726.5</v>
+        <v>1106.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>14.5</v>
+        <v>15.6</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>133.8999999999999</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>14.80000000000001</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>9.799999999999997</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>71.19999999999993</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>262.2000000000003</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>166.3999999999999</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>128.3000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2006年7月</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.5</v>
+        <v>17.6</v>
       </c>
       <c r="C11" t="n">
-        <v>118.3</v>
+        <v>142.5</v>
       </c>
       <c r="D11" t="n">
-        <v>808.2</v>
+        <v>1206.6</v>
       </c>
       <c r="E11" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="F11" t="n">
-        <v>2.6</v>
+        <v>11.8</v>
       </c>
       <c r="G11" t="n">
-        <v>13.8</v>
+        <v>16.7</v>
       </c>
       <c r="H11" t="n">
-        <v>93.3</v>
+        <v>139.1</v>
       </c>
       <c r="I11" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.2</v>
+        <v>12.3</v>
       </c>
       <c r="K11" t="n">
-        <v>6.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L11" t="n">
-        <v>47.9</v>
+        <v>74.2</v>
       </c>
       <c r="M11" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="N11" t="n">
-        <v>12.1</v>
+        <v>10.1</v>
       </c>
       <c r="O11" t="n">
-        <v>65.8</v>
+        <v>74.2</v>
       </c>
       <c r="P11" t="n">
-        <v>434.8</v>
+        <v>648.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="R11" t="n">
-        <v>15.4</v>
+        <v>18.8</v>
       </c>
       <c r="S11" t="n">
-        <v>240.2</v>
+        <v>287.5</v>
       </c>
       <c r="T11" t="n">
-        <v>1656.5</v>
+        <v>2457.8</v>
       </c>
       <c r="U11" t="n">
-        <v>14.5</v>
+        <v>15.3</v>
       </c>
       <c r="V11" t="n">
-        <v>18.9</v>
+        <v>23.7</v>
       </c>
       <c r="W11" t="n">
-        <v>153.9</v>
+        <v>187.4</v>
       </c>
       <c r="X11" t="n">
-        <v>1080.5</v>
+        <v>1596</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.5</v>
+        <v>17.8</v>
       </c>
       <c r="Z11" t="n">
-        <v>17.4</v>
+        <v>19.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>121.9</v>
+        <v>145</v>
       </c>
       <c r="AB11" t="n">
-        <v>848.3</v>
+        <v>1251.2</v>
       </c>
       <c r="AC11" t="n">
-        <v>14.9</v>
+        <v>16.1</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>16.69999999999999</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>9.200000000000003</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>74.20000000000005</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>287.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>187.4000000000001</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2006年8月</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B12" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1338.9</v>
+      </c>
+      <c r="E12" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="G12" t="n">
         <v>14.9</v>
       </c>
-      <c r="C12" t="n">
-        <v>122</v>
-      </c>
-      <c r="D12" t="n">
-        <v>930.2</v>
-      </c>
-      <c r="E12" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
+        <v>154</v>
+      </c>
+      <c r="I12" t="n">
         <v>6.1</v>
       </c>
-      <c r="G12" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>107.6</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5.4</v>
-      </c>
       <c r="J12" t="n">
-        <v>6.7</v>
+        <v>5.3</v>
       </c>
       <c r="K12" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="L12" t="n">
-        <v>55.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="M12" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="N12" t="n">
-        <v>12.8</v>
+        <v>11.3</v>
       </c>
       <c r="O12" t="n">
-        <v>68.3</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="P12" t="n">
-        <v>503.1</v>
+        <v>720.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="R12" t="n">
-        <v>16.5</v>
+        <v>18.9</v>
       </c>
       <c r="S12" t="n">
-        <v>251.6</v>
+        <v>269</v>
       </c>
       <c r="T12" t="n">
-        <v>1908.1</v>
+        <v>2726.8</v>
       </c>
       <c r="U12" t="n">
-        <v>14.7</v>
+        <v>15.6</v>
       </c>
       <c r="V12" t="n">
-        <v>19.6</v>
+        <v>24</v>
       </c>
       <c r="W12" t="n">
-        <v>161.7</v>
+        <v>174.3</v>
       </c>
       <c r="X12" t="n">
-        <v>1242.2</v>
+        <v>1770.3</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.9</v>
+        <v>18.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>18</v>
+        <v>22.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>129.6</v>
+        <v>136.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>977.9</v>
+        <v>1387.9</v>
       </c>
       <c r="AC12" t="n">
-        <v>15.3</v>
+        <v>16.7</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>132.3000000000002</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>14.90000000000001</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>7.899999999999991</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>71.89999999999998</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>269</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>174.3</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>136.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2006年9月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
+        <v>12.4</v>
       </c>
       <c r="C13" t="n">
-        <v>133.9</v>
+        <v>135.1</v>
       </c>
       <c r="D13" t="n">
-        <v>1064.1</v>
+        <v>1474</v>
       </c>
       <c r="E13" t="n">
-        <v>14.1</v>
+        <v>14.4</v>
       </c>
       <c r="F13" t="n">
-        <v>2.4</v>
+        <v>-2.1</v>
       </c>
       <c r="G13" t="n">
-        <v>14.8</v>
+        <v>18.2</v>
       </c>
       <c r="H13" t="n">
-        <v>122.4</v>
+        <v>172.2</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J13" t="n">
-        <v>8.6</v>
+        <v>14.3</v>
       </c>
       <c r="K13" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="L13" t="n">
-        <v>65</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="M13" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="N13" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="N13" t="n">
-        <v>13.7</v>
-      </c>
       <c r="O13" t="n">
-        <v>71.2</v>
+        <v>69.2</v>
       </c>
       <c r="P13" t="n">
-        <v>574.3</v>
+        <v>789.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>12.6</v>
+        <v>11.9</v>
       </c>
       <c r="R13" t="n">
-        <v>15.7</v>
+        <v>18.5</v>
       </c>
       <c r="S13" t="n">
-        <v>262.2</v>
+        <v>285</v>
       </c>
       <c r="T13" t="n">
-        <v>2170.3</v>
+        <v>3011.8</v>
       </c>
       <c r="U13" t="n">
-        <v>14.8</v>
+        <v>15.9</v>
       </c>
       <c r="V13" t="n">
-        <v>18.5</v>
+        <v>25.4</v>
       </c>
       <c r="W13" t="n">
-        <v>166.4</v>
+        <v>188.6</v>
       </c>
       <c r="X13" t="n">
-        <v>1408.6</v>
+        <v>1958.9</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.1</v>
+        <v>19</v>
       </c>
       <c r="Z13" t="n">
-        <v>17.7</v>
+        <v>24.6</v>
       </c>
       <c r="AA13" t="n">
-        <v>128.3</v>
+        <v>149.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>1106.2</v>
+        <v>1537.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>15.6</v>
+        <v>17.4</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>135.0999999999999</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>18.19999999999999</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>69.20000000000005</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>285</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>188.6000000000001</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>149.8999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.1</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
-        <v>163.3</v>
+        <v>129.3</v>
       </c>
       <c r="D14" t="n">
-        <v>1398</v>
+        <v>129.3</v>
       </c>
       <c r="E14" t="n">
-        <v>13.8</v>
+        <v>15</v>
       </c>
       <c r="F14" t="n">
-        <v>11.9</v>
+        <v>15.6</v>
       </c>
       <c r="G14" t="n">
-        <v>19.1</v>
+        <v>15</v>
       </c>
       <c r="H14" t="n">
-        <v>162.3</v>
+        <v>15</v>
       </c>
       <c r="I14" t="n">
-        <v>14.8</v>
+        <v>15.6</v>
       </c>
       <c r="J14" t="n">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
       <c r="K14" t="n">
-        <v>10.7</v>
+        <v>8.9</v>
       </c>
       <c r="L14" t="n">
-        <v>90.5</v>
+        <v>8.9</v>
       </c>
       <c r="M14" t="n">
-        <v>20.2</v>
+        <v>13.5</v>
       </c>
       <c r="N14" t="n">
-        <v>13.9</v>
+        <v>20.6</v>
       </c>
       <c r="O14" t="n">
-        <v>85.09999999999999</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="P14" t="n">
-        <v>746.4</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="Q14" t="n">
-        <v>13.4</v>
+        <v>20.6</v>
       </c>
       <c r="R14" t="n">
-        <v>18.1</v>
+        <v>16.5</v>
       </c>
       <c r="S14" t="n">
-        <v>338.7</v>
+        <v>280.5</v>
       </c>
       <c r="T14" t="n">
-        <v>2970.3</v>
+        <v>280.5</v>
       </c>
       <c r="U14" t="n">
-        <v>18.8</v>
+        <v>16.5</v>
       </c>
       <c r="V14" t="n">
-        <v>20.6</v>
+        <v>15.3</v>
       </c>
       <c r="W14" t="n">
-        <v>223.8</v>
+        <v>191.5</v>
       </c>
       <c r="X14" t="n">
-        <v>1971.1</v>
+        <v>191.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>21.3</v>
+        <v>15.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>23.3</v>
+        <v>17.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>175.4</v>
+        <v>151.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>1572.3</v>
+        <v>151.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>23.6</v>
+        <v>17.7</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>129.3</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>280.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>151.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13.5</v>
+        <v>22.7</v>
       </c>
       <c r="C15" t="n">
-        <v>153.7</v>
+        <v>129.5</v>
       </c>
       <c r="D15" t="n">
-        <v>1551.8</v>
+        <v>258.8</v>
       </c>
       <c r="E15" t="n">
-        <v>13.8</v>
+        <v>18.7</v>
       </c>
       <c r="F15" t="n">
-        <v>20.4</v>
+        <v>18.5</v>
       </c>
       <c r="G15" t="n">
-        <v>18.2</v>
+        <v>14.8</v>
       </c>
       <c r="H15" t="n">
-        <v>180.5</v>
+        <v>29.8</v>
       </c>
       <c r="I15" t="n">
-        <v>15.4</v>
+        <v>17</v>
       </c>
       <c r="J15" t="n">
-        <v>24.3</v>
+        <v>28.9</v>
       </c>
       <c r="K15" t="n">
-        <v>10.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L15" t="n">
-        <v>100.6</v>
+        <v>17.7</v>
       </c>
       <c r="M15" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="N15" t="n">
-        <v>14.1</v>
+        <v>22.6</v>
       </c>
       <c r="O15" t="n">
-        <v>83.09999999999999</v>
+        <v>61.8</v>
       </c>
       <c r="P15" t="n">
-        <v>829.6</v>
+        <v>126.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.5</v>
+        <v>21.6</v>
       </c>
       <c r="R15" t="n">
-        <v>19.2</v>
+        <v>26.3</v>
       </c>
       <c r="S15" t="n">
-        <v>323.7</v>
+        <v>291.3</v>
       </c>
       <c r="T15" t="n">
-        <v>3294.1</v>
+        <v>571.8</v>
       </c>
       <c r="U15" t="n">
-        <v>18.8</v>
+        <v>21.3</v>
       </c>
       <c r="V15" t="n">
-        <v>21</v>
+        <v>27.9</v>
       </c>
       <c r="W15" t="n">
-        <v>212.3</v>
+        <v>205.9</v>
       </c>
       <c r="X15" t="n">
-        <v>2183.4</v>
+        <v>397.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>21.2</v>
+        <v>21.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>24.9</v>
+        <v>29.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>170</v>
+        <v>161.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>1742.3</v>
+        <v>313</v>
       </c>
       <c r="AC15" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>8.799999999999999</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>61.80000000000001</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>291.3</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>205.9</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>161.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18.9</v>
+        <v>12.1</v>
       </c>
       <c r="C16" t="n">
-        <v>161</v>
+        <v>127.4</v>
       </c>
       <c r="D16" t="n">
-        <v>1712.7</v>
+        <v>386.2</v>
       </c>
       <c r="E16" t="n">
-        <v>14.2</v>
+        <v>15.9</v>
       </c>
       <c r="F16" t="n">
-        <v>19.8</v>
+        <v>14.6</v>
       </c>
       <c r="G16" t="n">
-        <v>21.8</v>
+        <v>15.1</v>
       </c>
       <c r="H16" t="n">
-        <v>202.3</v>
+        <v>44.9</v>
       </c>
       <c r="I16" t="n">
         <v>15.8</v>
       </c>
       <c r="J16" t="n">
-        <v>21.2</v>
+        <v>22.1</v>
       </c>
       <c r="K16" t="n">
-        <v>10.7</v>
+        <v>8.1</v>
       </c>
       <c r="L16" t="n">
-        <v>111.3</v>
+        <v>25.8</v>
       </c>
       <c r="M16" t="n">
-        <v>20.6</v>
+        <v>21.3</v>
       </c>
       <c r="N16" t="n">
-        <v>17.2</v>
+        <v>8.9</v>
       </c>
       <c r="O16" t="n">
-        <v>79</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="P16" t="n">
-        <v>908.6</v>
+        <v>195</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.8</v>
+        <v>16.2</v>
       </c>
       <c r="R16" t="n">
-        <v>21.6</v>
+        <v>19.5</v>
       </c>
       <c r="S16" t="n">
-        <v>345.8</v>
+        <v>276.2</v>
       </c>
       <c r="T16" t="n">
-        <v>3639.9</v>
+        <v>848</v>
       </c>
       <c r="U16" t="n">
-        <v>19.1</v>
+        <v>19.8</v>
       </c>
       <c r="V16" t="n">
-        <v>23.4</v>
+        <v>24.3</v>
       </c>
       <c r="W16" t="n">
-        <v>234.3</v>
+        <v>184.9</v>
       </c>
       <c r="X16" t="n">
-        <v>2417.7</v>
+        <v>582.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="Z16" t="n">
-        <v>24.1</v>
+        <v>26.7</v>
       </c>
       <c r="AA16" t="n">
-        <v>184.8</v>
+        <v>148.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>1927.2</v>
+        <v>461.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>127.4</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>8.100000000000001</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>276.2</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>148.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2007年1月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15</v>
+        <v>12.8</v>
       </c>
       <c r="C17" t="n">
-        <v>129.3</v>
+        <v>142.7</v>
       </c>
       <c r="D17" t="n">
-        <v>129.3</v>
+        <v>528.9</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
       </c>
       <c r="F17" t="n">
-        <v>15.6</v>
+        <v>17.6</v>
       </c>
       <c r="G17" t="n">
-        <v>15</v>
+        <v>16.1</v>
       </c>
       <c r="H17" t="n">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I17" t="n">
-        <v>15.6</v>
+        <v>16.3</v>
       </c>
       <c r="J17" t="n">
-        <v>13.5</v>
+        <v>19.9</v>
       </c>
       <c r="K17" t="n">
-        <v>8.9</v>
+        <v>8</v>
       </c>
       <c r="L17" t="n">
-        <v>8.9</v>
+        <v>33.8</v>
       </c>
       <c r="M17" t="n">
-        <v>13.5</v>
+        <v>20.9</v>
       </c>
       <c r="N17" t="n">
-        <v>20.6</v>
+        <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>65.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="P17" t="n">
-        <v>65.09999999999999</v>
+        <v>277</v>
       </c>
       <c r="Q17" t="n">
-        <v>20.6</v>
+        <v>15.3</v>
       </c>
       <c r="R17" t="n">
-        <v>16.5</v>
+        <v>17.2</v>
       </c>
       <c r="S17" t="n">
-        <v>280.5</v>
+        <v>286.4</v>
       </c>
       <c r="T17" t="n">
-        <v>280.5</v>
+        <v>1134.4</v>
       </c>
       <c r="U17" t="n">
-        <v>16.5</v>
+        <v>19.2</v>
       </c>
       <c r="V17" t="n">
-        <v>15.3</v>
+        <v>19.1</v>
       </c>
       <c r="W17" t="n">
-        <v>191.5</v>
+        <v>180.3</v>
       </c>
       <c r="X17" t="n">
-        <v>191.5</v>
+        <v>762.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>15.3</v>
+        <v>20.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>17.7</v>
+        <v>22</v>
       </c>
       <c r="AA17" t="n">
-        <v>151.2</v>
+        <v>143.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>151.2</v>
+        <v>605.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>17.7</v>
+        <v>23</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>142.7</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>7.999999999999996</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>82</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>286.4000000000001</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>180.3000000000001</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>143.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>22.7</v>
+        <v>12</v>
       </c>
       <c r="C18" t="n">
-        <v>129.5</v>
+        <v>139.8</v>
       </c>
       <c r="D18" t="n">
-        <v>258.8</v>
+        <v>668.7</v>
       </c>
       <c r="E18" t="n">
-        <v>18.7</v>
+        <v>14.4</v>
       </c>
       <c r="F18" t="n">
-        <v>18.5</v>
+        <v>14.2</v>
       </c>
       <c r="G18" t="n">
-        <v>14.8</v>
+        <v>15.4</v>
       </c>
       <c r="H18" t="n">
-        <v>29.8</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>17</v>
+        <v>15.8</v>
       </c>
       <c r="J18" t="n">
-        <v>28.9</v>
+        <v>15.6</v>
       </c>
       <c r="K18" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L18" t="n">
-        <v>17.7</v>
+        <v>42</v>
       </c>
       <c r="M18" t="n">
-        <v>20.7</v>
+        <v>19.9</v>
       </c>
       <c r="N18" t="n">
-        <v>22.6</v>
+        <v>12.8</v>
       </c>
       <c r="O18" t="n">
-        <v>61.8</v>
+        <v>76.8</v>
       </c>
       <c r="P18" t="n">
-        <v>126.9</v>
+        <v>353.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>21.6</v>
+        <v>14.7</v>
       </c>
       <c r="R18" t="n">
-        <v>26.3</v>
+        <v>17.4</v>
       </c>
       <c r="S18" t="n">
-        <v>291.3</v>
+        <v>295</v>
       </c>
       <c r="T18" t="n">
-        <v>571.8</v>
+        <v>1429.4</v>
       </c>
       <c r="U18" t="n">
-        <v>21.3</v>
+        <v>18.8</v>
       </c>
       <c r="V18" t="n">
-        <v>27.9</v>
+        <v>19.7</v>
       </c>
       <c r="W18" t="n">
-        <v>205.9</v>
+        <v>194.6</v>
       </c>
       <c r="X18" t="n">
-        <v>397.4</v>
+        <v>957.2</v>
       </c>
       <c r="Y18" t="n">
-        <v>21.5</v>
+        <v>20.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>29.3</v>
+        <v>22.8</v>
       </c>
       <c r="AA18" t="n">
-        <v>161.8</v>
+        <v>155.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>313</v>
+        <v>760.7</v>
       </c>
       <c r="AC18" t="n">
-        <v>23.4</v>
+        <v>22.9</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>139.8000000000001</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>15.40000000000001</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>8.200000000000003</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>76.80000000000001</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>295</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>194.6</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>155.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>12.1</v>
+        <v>13.1</v>
       </c>
       <c r="C19" t="n">
-        <v>127.4</v>
+        <v>134.7</v>
       </c>
       <c r="D19" t="n">
-        <v>386.2</v>
+        <v>803.4</v>
       </c>
       <c r="E19" t="n">
-        <v>15.9</v>
+        <v>14.2</v>
       </c>
       <c r="F19" t="n">
-        <v>14.6</v>
+        <v>12.6</v>
       </c>
       <c r="G19" t="n">
-        <v>15.1</v>
+        <v>16</v>
       </c>
       <c r="H19" t="n">
-        <v>44.9</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>15.8</v>
+        <v>15.3</v>
       </c>
       <c r="J19" t="n">
-        <v>22.1</v>
+        <v>20.3</v>
       </c>
       <c r="K19" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L19" t="n">
-        <v>25.8</v>
+        <v>50.2</v>
       </c>
       <c r="M19" t="n">
-        <v>21.3</v>
+        <v>19.9</v>
       </c>
       <c r="N19" t="n">
-        <v>8.9</v>
+        <v>12.8</v>
       </c>
       <c r="O19" t="n">
-        <v>68.09999999999999</v>
+        <v>74</v>
       </c>
       <c r="P19" t="n">
-        <v>195</v>
+        <v>427.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.2</v>
+        <v>14.4</v>
       </c>
       <c r="R19" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="S19" t="n">
-        <v>276.2</v>
+        <v>287.7</v>
       </c>
       <c r="T19" t="n">
-        <v>848</v>
+        <v>1717.1</v>
       </c>
       <c r="U19" t="n">
-        <v>19.8</v>
+        <v>18.7</v>
       </c>
       <c r="V19" t="n">
-        <v>24.3</v>
+        <v>20.6</v>
       </c>
       <c r="W19" t="n">
-        <v>184.9</v>
+        <v>189.5</v>
       </c>
       <c r="X19" t="n">
-        <v>582.3</v>
+        <v>1146.7</v>
       </c>
       <c r="Y19" t="n">
-        <v>21.3</v>
+        <v>20.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>26.7</v>
+        <v>22.7</v>
       </c>
       <c r="AA19" t="n">
-        <v>148.8</v>
+        <v>153</v>
       </c>
       <c r="AB19" t="n">
-        <v>461.8</v>
+        <v>913.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>23.3</v>
+        <v>22.9</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>134.6999999999999</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>8.200000000000003</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>74</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>287.6999999999998</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>189.5</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>153</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>12.8</v>
       </c>
       <c r="C20" t="n">
-        <v>142.7</v>
+        <v>133.4</v>
       </c>
       <c r="D20" t="n">
-        <v>528.9</v>
+        <v>936.8</v>
       </c>
       <c r="E20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" t="n">
-        <v>17.6</v>
+        <v>16.9</v>
       </c>
       <c r="G20" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="H20" t="n">
-        <v>61</v>
+        <v>108.7</v>
       </c>
       <c r="I20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="M20" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>12</v>
+      </c>
+      <c r="O20" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="P20" t="n">
+        <v>502.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>14</v>
+      </c>
+      <c r="R20" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="S20" t="n">
+        <v>287.3</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2004.5</v>
+      </c>
+      <c r="U20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="W20" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1335</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>154</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1067.7</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="AE20" t="n">
         <v>16.3</v>
       </c>
-      <c r="J20" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="K20" t="n">
-        <v>8</v>
-      </c>
-      <c r="L20" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="M20" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="N20" t="n">
-        <v>13</v>
-      </c>
-      <c r="O20" t="n">
-        <v>82</v>
-      </c>
-      <c r="P20" t="n">
-        <v>277</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="R20" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="S20" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1134.4</v>
-      </c>
-      <c r="U20" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="V20" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="W20" t="n">
-        <v>180.3</v>
-      </c>
-      <c r="X20" t="n">
-        <v>762.6</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>143.7</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>605.5</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>23</v>
+      <c r="AF20" t="n">
+        <v>8.099999999999994</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>74.69999999999999</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>287.4000000000001</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="C21" t="n">
-        <v>139.8</v>
+        <v>138.9</v>
       </c>
       <c r="D21" t="n">
-        <v>668.7</v>
+        <v>1075.7</v>
       </c>
       <c r="E21" t="n">
-        <v>14.4</v>
+        <v>13.8</v>
       </c>
       <c r="F21" t="n">
-        <v>14.2</v>
+        <v>11.8</v>
       </c>
       <c r="G21" t="n">
-        <v>15.4</v>
+        <v>16.4</v>
       </c>
       <c r="H21" t="n">
-        <v>76.40000000000001</v>
+        <v>125.1</v>
       </c>
       <c r="I21" t="n">
-        <v>15.8</v>
+        <v>15</v>
       </c>
       <c r="J21" t="n">
-        <v>15.6</v>
+        <v>19.2</v>
       </c>
       <c r="K21" t="n">
-        <v>8.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L21" t="n">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="M21" t="n">
-        <v>19.9</v>
+        <v>19.6</v>
       </c>
       <c r="N21" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="O21" t="n">
-        <v>76.8</v>
+        <v>77.7</v>
       </c>
       <c r="P21" t="n">
-        <v>353.8</v>
+        <v>580.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>14.7</v>
+        <v>13.8</v>
       </c>
       <c r="R21" t="n">
-        <v>17.4</v>
+        <v>18.5</v>
       </c>
       <c r="S21" t="n">
-        <v>295</v>
+        <v>299.4</v>
       </c>
       <c r="T21" t="n">
-        <v>1429.4</v>
+        <v>2303.9</v>
       </c>
       <c r="U21" t="n">
-        <v>18.8</v>
+        <v>18.5</v>
       </c>
       <c r="V21" t="n">
-        <v>19.7</v>
+        <v>21.6</v>
       </c>
       <c r="W21" t="n">
-        <v>194.6</v>
+        <v>196.6</v>
       </c>
       <c r="X21" t="n">
-        <v>957.2</v>
+        <v>1531.6</v>
       </c>
       <c r="Y21" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.8</v>
+        <v>24.3</v>
       </c>
       <c r="AA21" t="n">
-        <v>155.2</v>
+        <v>160.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>760.7</v>
+        <v>1228.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>22.9</v>
+        <v>23</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>138.9000000000001</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>16.39999999999999</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>8.700000000000003</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>77.70000000000005</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>299.4000000000001</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>196.5999999999999</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>160.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.1</v>
+        <v>14.9</v>
       </c>
       <c r="C22" t="n">
-        <v>134.7</v>
+        <v>159</v>
       </c>
       <c r="D22" t="n">
-        <v>803.4</v>
+        <v>1234.7</v>
       </c>
       <c r="E22" t="n">
-        <v>14.2</v>
+        <v>13.9</v>
       </c>
       <c r="F22" t="n">
-        <v>12.6</v>
+        <v>16.8</v>
       </c>
       <c r="G22" t="n">
-        <v>16</v>
+        <v>18.1</v>
       </c>
       <c r="H22" t="n">
-        <v>92.40000000000001</v>
+        <v>143.2</v>
       </c>
       <c r="I22" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="J22" t="n">
-        <v>20.3</v>
+        <v>30</v>
       </c>
       <c r="K22" t="n">
-        <v>8.199999999999999</v>
+        <v>12.8</v>
       </c>
       <c r="L22" t="n">
-        <v>50.2</v>
+        <v>79.8</v>
       </c>
       <c r="M22" t="n">
-        <v>19.9</v>
+        <v>21.2</v>
       </c>
       <c r="N22" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="O22" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="P22" t="n">
+        <v>661.3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>327.7</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2631.6</v>
+      </c>
+      <c r="U22" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="V22" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="W22" t="n">
+        <v>215.7</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1747.3</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>168.7</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1396.9</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>159</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>18.09999999999999</v>
+      </c>
+      <c r="AF22" t="n">
         <v>12.8</v>
       </c>
-      <c r="O22" t="n">
-        <v>74</v>
-      </c>
-      <c r="P22" t="n">
-        <v>427.8</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="R22" t="n">
-        <v>18</v>
-      </c>
-      <c r="S22" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1717.1</v>
-      </c>
-      <c r="U22" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="V22" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="W22" t="n">
-        <v>189.5</v>
-      </c>
-      <c r="X22" t="n">
-        <v>1146.7</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>153</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>913.7</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>22.9</v>
+      <c r="AG22" t="n">
+        <v>81.09999999999991</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>327.6999999999998</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>215.7</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>168.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="C23" t="n">
-        <v>133.4</v>
+        <v>163.3</v>
       </c>
       <c r="D23" t="n">
-        <v>936.8</v>
+        <v>1398</v>
       </c>
       <c r="E23" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="F23" t="n">
-        <v>16.9</v>
+        <v>11.9</v>
       </c>
       <c r="G23" t="n">
-        <v>16.3</v>
+        <v>19.1</v>
       </c>
       <c r="H23" t="n">
-        <v>108.7</v>
+        <v>162.3</v>
       </c>
       <c r="I23" t="n">
-        <v>15.5</v>
+        <v>14.8</v>
       </c>
       <c r="J23" t="n">
-        <v>18.3</v>
+        <v>13.2</v>
       </c>
       <c r="K23" t="n">
-        <v>8.1</v>
+        <v>10.7</v>
       </c>
       <c r="L23" t="n">
-        <v>58.3</v>
+        <v>90.5</v>
       </c>
       <c r="M23" t="n">
-        <v>19.7</v>
+        <v>20.2</v>
       </c>
       <c r="N23" t="n">
-        <v>12</v>
+        <v>13.9</v>
       </c>
       <c r="O23" t="n">
-        <v>74.5</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="P23" t="n">
-        <v>502.5</v>
+        <v>746.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>14</v>
+        <v>13.4</v>
       </c>
       <c r="R23" t="n">
-        <v>17.8</v>
+        <v>18.1</v>
       </c>
       <c r="S23" t="n">
-        <v>287.3</v>
+        <v>338.7</v>
       </c>
       <c r="T23" t="n">
-        <v>2004.5</v>
+        <v>2970.3</v>
       </c>
       <c r="U23" t="n">
-        <v>18.5</v>
+        <v>18.8</v>
       </c>
       <c r="V23" t="n">
-        <v>20.3</v>
+        <v>20.6</v>
       </c>
       <c r="W23" t="n">
-        <v>188.4</v>
+        <v>223.8</v>
       </c>
       <c r="X23" t="n">
-        <v>1335</v>
+        <v>1971.1</v>
       </c>
       <c r="Y23" t="n">
-        <v>20.5</v>
+        <v>21.3</v>
       </c>
       <c r="Z23" t="n">
-        <v>22.5</v>
+        <v>23.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>154</v>
+        <v>175.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>1067.7</v>
+        <v>1572.3</v>
       </c>
       <c r="AC23" t="n">
-        <v>22.8</v>
+        <v>23.6</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>163.3</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>19.10000000000002</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85.10000000000002</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>338.7000000000003</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>223.8</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>175.3999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>12.4</v>
+        <v>13.5</v>
       </c>
       <c r="C24" t="n">
-        <v>138.9</v>
+        <v>153.7</v>
       </c>
       <c r="D24" t="n">
-        <v>1075.7</v>
+        <v>1551.8</v>
       </c>
       <c r="E24" t="n">
         <v>13.8</v>
       </c>
       <c r="F24" t="n">
-        <v>11.8</v>
+        <v>20.4</v>
       </c>
       <c r="G24" t="n">
-        <v>16.4</v>
+        <v>18.2</v>
       </c>
       <c r="H24" t="n">
-        <v>125.1</v>
+        <v>180.5</v>
       </c>
       <c r="I24" t="n">
-        <v>15</v>
+        <v>15.4</v>
       </c>
       <c r="J24" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="M24" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="N24" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>83.09999999999999</v>
+      </c>
+      <c r="P24" t="n">
+        <v>829.6</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="R24" t="n">
         <v>19.2</v>
       </c>
-      <c r="K24" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="L24" t="n">
-        <v>67</v>
-      </c>
-      <c r="M24" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="N24" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="O24" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="P24" t="n">
-        <v>580.2</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="R24" t="n">
-        <v>18.5</v>
-      </c>
       <c r="S24" t="n">
-        <v>299.4</v>
+        <v>323.7</v>
       </c>
       <c r="T24" t="n">
-        <v>2303.9</v>
+        <v>3294.1</v>
       </c>
       <c r="U24" t="n">
-        <v>18.5</v>
+        <v>18.8</v>
       </c>
       <c r="V24" t="n">
-        <v>21.6</v>
+        <v>21</v>
       </c>
       <c r="W24" t="n">
-        <v>196.6</v>
+        <v>212.3</v>
       </c>
       <c r="X24" t="n">
-        <v>1531.6</v>
+        <v>2183.4</v>
       </c>
       <c r="Y24" t="n">
-        <v>20.7</v>
+        <v>21.2</v>
       </c>
       <c r="Z24" t="n">
-        <v>24.3</v>
+        <v>24.9</v>
       </c>
       <c r="AA24" t="n">
-        <v>160.5</v>
+        <v>170</v>
       </c>
       <c r="AB24" t="n">
-        <v>1228.2</v>
+        <v>1742.3</v>
       </c>
       <c r="AC24" t="n">
-        <v>23</v>
+        <v>23.7</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>153.8</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>18.19999999999999</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>10.09999999999999</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>83.20000000000005</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>323.7999999999997</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>212.3000000000002</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>14.9</v>
+        <v>18.9</v>
       </c>
       <c r="C25" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D25" t="n">
-        <v>1234.7</v>
+        <v>1712.7</v>
       </c>
       <c r="E25" t="n">
-        <v>13.9</v>
+        <v>14.2</v>
       </c>
       <c r="F25" t="n">
-        <v>16.8</v>
+        <v>19.8</v>
       </c>
       <c r="G25" t="n">
-        <v>18.1</v>
+        <v>21.8</v>
       </c>
       <c r="H25" t="n">
-        <v>143.2</v>
+        <v>202.3</v>
       </c>
       <c r="I25" t="n">
-        <v>15.2</v>
+        <v>15.8</v>
       </c>
       <c r="J25" t="n">
-        <v>30</v>
+        <v>21.2</v>
       </c>
       <c r="K25" t="n">
-        <v>12.8</v>
+        <v>10.7</v>
       </c>
       <c r="L25" t="n">
-        <v>79.8</v>
+        <v>111.3</v>
       </c>
       <c r="M25" t="n">
-        <v>21.2</v>
+        <v>20.6</v>
       </c>
       <c r="N25" t="n">
-        <v>10.2</v>
+        <v>17.2</v>
       </c>
       <c r="O25" t="n">
-        <v>81.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="P25" t="n">
-        <v>661.3</v>
+        <v>908.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.4</v>
+        <v>13.8</v>
       </c>
       <c r="R25" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="S25" t="n">
-        <v>327.7</v>
+        <v>345.8</v>
       </c>
       <c r="T25" t="n">
-        <v>2631.6</v>
+        <v>3639.9</v>
       </c>
       <c r="U25" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="V25" t="n">
-        <v>26.3</v>
+        <v>23.4</v>
       </c>
       <c r="W25" t="n">
-        <v>215.7</v>
+        <v>234.3</v>
       </c>
       <c r="X25" t="n">
-        <v>1747.3</v>
+        <v>2417.7</v>
       </c>
       <c r="Y25" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="Z25" t="n">
-        <v>28.5</v>
+        <v>24.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>168.7</v>
+        <v>184.8</v>
       </c>
       <c r="AB25" t="n">
-        <v>1396.9</v>
+        <v>1927.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>160.9000000000001</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>21.80000000000001</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>79</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>345.8000000000002</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>234.2999999999997</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>184.9000000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10.6</v>
+        <v>24.5</v>
       </c>
       <c r="C26" t="n">
-        <v>182</v>
+        <v>164.2</v>
       </c>
       <c r="D26" t="n">
-        <v>1607.1</v>
+        <v>164.2</v>
       </c>
       <c r="E26" t="n">
-        <v>13.1</v>
+        <v>24.5</v>
       </c>
       <c r="F26" t="n">
-        <v>1.9</v>
+        <v>24.1</v>
       </c>
       <c r="G26" t="n">
-        <v>19.9</v>
+        <v>18.9</v>
       </c>
       <c r="H26" t="n">
-        <v>184.9</v>
+        <v>18.9</v>
       </c>
       <c r="I26" t="n">
-        <v>12.2</v>
+        <v>24.1</v>
       </c>
       <c r="J26" t="n">
-        <v>13.4</v>
+        <v>29.2</v>
       </c>
       <c r="K26" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="L26" t="n">
-        <v>105.8</v>
+        <v>11.3</v>
       </c>
       <c r="M26" t="n">
-        <v>17.3</v>
+        <v>29.2</v>
       </c>
       <c r="N26" t="n">
-        <v>7.9</v>
+        <v>18.5</v>
       </c>
       <c r="O26" t="n">
-        <v>91</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="P26" t="n">
-        <v>828.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="Q26" t="n">
-        <v>11.9</v>
+        <v>18.5</v>
       </c>
       <c r="R26" t="n">
-        <v>17.4</v>
+        <v>27.1</v>
       </c>
       <c r="S26" t="n">
-        <v>388.3</v>
+        <v>350</v>
       </c>
       <c r="T26" t="n">
-        <v>3477.8</v>
+        <v>350</v>
       </c>
       <c r="U26" t="n">
-        <v>19.5</v>
+        <v>27.1</v>
       </c>
       <c r="V26" t="n">
-        <v>22.8</v>
+        <v>30.2</v>
       </c>
       <c r="W26" t="n">
-        <v>265.5</v>
+        <v>242.9</v>
       </c>
       <c r="X26" t="n">
-        <v>2358.3</v>
+        <v>242.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>23.2</v>
+        <v>30.2</v>
       </c>
       <c r="Z26" t="n">
-        <v>24.3</v>
+        <v>29.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>206.2</v>
+        <v>185.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>1870.7</v>
+        <v>185.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>25.6</v>
+        <v>29.5</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>164.2</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>350</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>242.9</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>185.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="C27" t="n">
-        <v>169.9</v>
+        <v>142.6</v>
       </c>
       <c r="D27" t="n">
-        <v>1777</v>
+        <v>306.7</v>
       </c>
       <c r="E27" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="F27" t="n">
         <v>12.6</v>
       </c>
-      <c r="F27" t="n">
-        <v>8.1</v>
-      </c>
       <c r="G27" t="n">
-        <v>19.7</v>
+        <v>17</v>
       </c>
       <c r="H27" t="n">
-        <v>204.5</v>
+        <v>35.9</v>
       </c>
       <c r="I27" t="n">
-        <v>11.8</v>
+        <v>18.4</v>
       </c>
       <c r="J27" t="n">
-        <v>10.4</v>
+        <v>17.7</v>
       </c>
       <c r="K27" t="n">
-        <v>10.7</v>
+        <v>10.3</v>
       </c>
       <c r="L27" t="n">
-        <v>116.5</v>
+        <v>21.6</v>
       </c>
       <c r="M27" t="n">
-        <v>16.6</v>
+        <v>23.5</v>
       </c>
       <c r="N27" t="n">
-        <v>6.5</v>
+        <v>8.4</v>
       </c>
       <c r="O27" t="n">
-        <v>89.59999999999999</v>
+        <v>65.3</v>
       </c>
       <c r="P27" t="n">
-        <v>918.5</v>
+        <v>142.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.4</v>
+        <v>13.6</v>
       </c>
       <c r="R27" t="n">
         <v>16.1</v>
       </c>
       <c r="S27" t="n">
-        <v>370.5</v>
+        <v>326.8</v>
       </c>
       <c r="T27" t="n">
-        <v>3848.2</v>
+        <v>676.8</v>
       </c>
       <c r="U27" t="n">
-        <v>19.2</v>
+        <v>21.5</v>
       </c>
       <c r="V27" t="n">
-        <v>20.9</v>
+        <v>18.6</v>
       </c>
       <c r="W27" t="n">
-        <v>250.4</v>
+        <v>234.1</v>
       </c>
       <c r="X27" t="n">
-        <v>2608.7</v>
+        <v>477.1</v>
       </c>
       <c r="Y27" t="n">
-        <v>23</v>
+        <v>24.3</v>
       </c>
       <c r="Z27" t="n">
-        <v>24.6</v>
+        <v>20.3</v>
       </c>
       <c r="AA27" t="n">
-        <v>200.6</v>
+        <v>184.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>2071.3</v>
+        <v>370.1</v>
       </c>
       <c r="AC27" t="n">
-        <v>25.5</v>
+        <v>24.7</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>65.29999999999998</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>326.8</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>234.2</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>184.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.1</v>
+        <v>17.5</v>
       </c>
       <c r="C28" t="n">
-        <v>178.3</v>
+        <v>151.2</v>
       </c>
       <c r="D28" t="n">
-        <v>1955.3</v>
+        <v>457.9</v>
       </c>
       <c r="E28" t="n">
-        <v>12.2</v>
+        <v>17.6</v>
       </c>
       <c r="F28" t="n">
-        <v>13</v>
+        <v>18.1</v>
       </c>
       <c r="G28" t="n">
-        <v>24.6</v>
+        <v>18</v>
       </c>
       <c r="H28" t="n">
-        <v>229.1</v>
+        <v>53.9</v>
       </c>
       <c r="I28" t="n">
-        <v>12</v>
+        <v>18.3</v>
       </c>
       <c r="J28" t="n">
-        <v>8.4</v>
+        <v>18.5</v>
       </c>
       <c r="K28" t="n">
-        <v>11.3</v>
+        <v>9.9</v>
       </c>
       <c r="L28" t="n">
-        <v>127.9</v>
+        <v>31.5</v>
       </c>
       <c r="M28" t="n">
-        <v>15.8</v>
+        <v>21.8</v>
       </c>
       <c r="N28" t="n">
-        <v>6.2</v>
+        <v>17.9</v>
       </c>
       <c r="O28" t="n">
-        <v>84.7</v>
+        <v>77.2</v>
       </c>
       <c r="P28" t="n">
-        <v>1003.2</v>
+        <v>219.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>10.9</v>
+        <v>15.1</v>
       </c>
       <c r="R28" t="n">
-        <v>14.2</v>
+        <v>23.5</v>
       </c>
       <c r="S28" t="n">
-        <v>384.5</v>
+        <v>332.4</v>
       </c>
       <c r="T28" t="n">
-        <v>4232.8</v>
+        <v>1009.2</v>
       </c>
       <c r="U28" t="n">
-        <v>18.7</v>
+        <v>22.2</v>
       </c>
       <c r="V28" t="n">
-        <v>17.4</v>
+        <v>26.3</v>
       </c>
       <c r="W28" t="n">
-        <v>263.9</v>
+        <v>227.3</v>
       </c>
       <c r="X28" t="n">
-        <v>2872.7</v>
+        <v>704.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>22.5</v>
+        <v>24.9</v>
       </c>
       <c r="Z28" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AA28" t="n">
-        <v>206.2</v>
+        <v>181.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>2277.5</v>
+        <v>551.2</v>
       </c>
       <c r="AC28" t="n">
-        <v>24.9</v>
+        <v>26.3</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>151.2</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>9.899999999999999</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>77.20000000000002</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>332.4000000000001</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>227.3</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>181.1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2008年1月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>24.5</v>
+        <v>15.9</v>
       </c>
       <c r="C29" t="n">
-        <v>164.2</v>
+        <v>163.6</v>
       </c>
       <c r="D29" t="n">
-        <v>164.2</v>
+        <v>621.6</v>
       </c>
       <c r="E29" t="n">
-        <v>24.5</v>
+        <v>17.1</v>
       </c>
       <c r="F29" t="n">
-        <v>24.1</v>
+        <v>13.2</v>
       </c>
       <c r="G29" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="H29" t="n">
-        <v>18.9</v>
+        <v>72.7</v>
       </c>
       <c r="I29" t="n">
-        <v>24.1</v>
+        <v>16.9</v>
       </c>
       <c r="J29" t="n">
-        <v>29.2</v>
+        <v>17.2</v>
       </c>
       <c r="K29" t="n">
-        <v>11.3</v>
+        <v>9.5</v>
       </c>
       <c r="L29" t="n">
-        <v>11.3</v>
+        <v>41</v>
       </c>
       <c r="M29" t="n">
-        <v>29.2</v>
+        <v>20.8</v>
       </c>
       <c r="N29" t="n">
-        <v>18.5</v>
+        <v>13.7</v>
       </c>
       <c r="O29" t="n">
-        <v>76.90000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="P29" t="n">
-        <v>76.90000000000001</v>
+        <v>307.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>18.5</v>
+        <v>14.7</v>
       </c>
       <c r="R29" t="n">
-        <v>27.1</v>
+        <v>20.9</v>
       </c>
       <c r="S29" t="n">
-        <v>350</v>
+        <v>337.8</v>
       </c>
       <c r="T29" t="n">
-        <v>350</v>
+        <v>1347</v>
       </c>
       <c r="U29" t="n">
-        <v>27.1</v>
+        <v>21.8</v>
       </c>
       <c r="V29" t="n">
-        <v>30.2</v>
+        <v>25</v>
       </c>
       <c r="W29" t="n">
-        <v>242.9</v>
+        <v>221.1</v>
       </c>
       <c r="X29" t="n">
-        <v>242.9</v>
+        <v>925.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>30.2</v>
+        <v>24.9</v>
       </c>
       <c r="Z29" t="n">
-        <v>29.5</v>
+        <v>26.1</v>
       </c>
       <c r="AA29" t="n">
-        <v>185.8</v>
+        <v>174.2</v>
       </c>
       <c r="AB29" t="n">
-        <v>185.8</v>
+        <v>725.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>29.5</v>
+        <v>26.2</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>163.7</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>337.8</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>221.1</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>174.1999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="C30" t="n">
-        <v>142.6</v>
+        <v>158.9</v>
       </c>
       <c r="D30" t="n">
-        <v>306.7</v>
+        <v>780.5</v>
       </c>
       <c r="E30" t="n">
-        <v>17.9</v>
+        <v>15.8</v>
       </c>
       <c r="F30" t="n">
-        <v>12.6</v>
+        <v>15.4</v>
       </c>
       <c r="G30" t="n">
-        <v>17</v>
+        <v>18.2</v>
       </c>
       <c r="H30" t="n">
-        <v>35.9</v>
+        <v>90.8</v>
       </c>
       <c r="I30" t="n">
-        <v>18.4</v>
+        <v>16.6</v>
       </c>
       <c r="J30" t="n">
-        <v>17.7</v>
+        <v>19.1</v>
       </c>
       <c r="K30" t="n">
-        <v>10.3</v>
+        <v>9.4</v>
       </c>
       <c r="L30" t="n">
-        <v>21.6</v>
+        <v>50.4</v>
       </c>
       <c r="M30" t="n">
-        <v>23.5</v>
+        <v>20.4</v>
       </c>
       <c r="N30" t="n">
-        <v>8.4</v>
+        <v>6</v>
       </c>
       <c r="O30" t="n">
-        <v>65.3</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="P30" t="n">
-        <v>142.2</v>
+        <v>390.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>13.6</v>
+        <v>12.7</v>
       </c>
       <c r="R30" t="n">
-        <v>16.1</v>
+        <v>16.8</v>
       </c>
       <c r="S30" t="n">
-        <v>326.8</v>
+        <v>336.5</v>
       </c>
       <c r="T30" t="n">
-        <v>676.8</v>
+        <v>1683.5</v>
       </c>
       <c r="U30" t="n">
-        <v>21.5</v>
+        <v>20.8</v>
       </c>
       <c r="V30" t="n">
-        <v>18.6</v>
+        <v>21.4</v>
       </c>
       <c r="W30" t="n">
-        <v>234.1</v>
+        <v>226</v>
       </c>
       <c r="X30" t="n">
-        <v>477.1</v>
+        <v>1151.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="Z30" t="n">
-        <v>20.3</v>
+        <v>22.7</v>
       </c>
       <c r="AA30" t="n">
-        <v>184.3</v>
+        <v>177.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>370.1</v>
+        <v>903</v>
       </c>
       <c r="AC30" t="n">
-        <v>24.7</v>
+        <v>25.5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>158.9</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>18.09999999999999</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>9.399999999999999</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>83</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>336.5</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>226</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>177.6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>17.5</v>
+        <v>7.1</v>
       </c>
       <c r="C31" t="n">
-        <v>151.2</v>
+        <v>150.3</v>
       </c>
       <c r="D31" t="n">
-        <v>457.9</v>
+        <v>930.8</v>
       </c>
       <c r="E31" t="n">
-        <v>17.6</v>
+        <v>14.3</v>
       </c>
       <c r="F31" t="n">
-        <v>18.1</v>
+        <v>10.1</v>
       </c>
       <c r="G31" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="H31" t="n">
-        <v>53.9</v>
+        <v>108.7</v>
       </c>
       <c r="I31" t="n">
-        <v>18.3</v>
+        <v>15.5</v>
       </c>
       <c r="J31" t="n">
-        <v>18.5</v>
+        <v>16.4</v>
       </c>
       <c r="K31" t="n">
-        <v>9.9</v>
+        <v>9.5</v>
       </c>
       <c r="L31" t="n">
-        <v>31.5</v>
+        <v>59.9</v>
       </c>
       <c r="M31" t="n">
-        <v>21.8</v>
+        <v>19.8</v>
       </c>
       <c r="N31" t="n">
-        <v>17.9</v>
+        <v>4.5</v>
       </c>
       <c r="O31" t="n">
-        <v>77.2</v>
+        <v>78.2</v>
       </c>
       <c r="P31" t="n">
-        <v>219.4</v>
+        <v>469</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.1</v>
+        <v>11.3</v>
       </c>
       <c r="R31" t="n">
-        <v>23.5</v>
+        <v>15.9</v>
       </c>
       <c r="S31" t="n">
-        <v>332.4</v>
+        <v>330.5</v>
       </c>
       <c r="T31" t="n">
-        <v>1009.2</v>
+        <v>2013.9</v>
       </c>
       <c r="U31" t="n">
-        <v>22.2</v>
+        <v>20</v>
       </c>
       <c r="V31" t="n">
-        <v>26.3</v>
+        <v>20.9</v>
       </c>
       <c r="W31" t="n">
-        <v>227.3</v>
+        <v>224.8</v>
       </c>
       <c r="X31" t="n">
-        <v>704.4</v>
+        <v>1376.2</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.9</v>
+        <v>23.7</v>
       </c>
       <c r="Z31" t="n">
-        <v>29</v>
+        <v>24.4</v>
       </c>
       <c r="AA31" t="n">
-        <v>181.1</v>
+        <v>180.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>551.2</v>
+        <v>1083.1</v>
       </c>
       <c r="AC31" t="n">
-        <v>26.3</v>
+        <v>25.3</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>150.3</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>17.90000000000001</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>78.19999999999999</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>330.4000000000001</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>224.7</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>180.0999999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>15.9</v>
+        <v>10.2</v>
       </c>
       <c r="C32" t="n">
-        <v>163.6</v>
+        <v>152.7</v>
       </c>
       <c r="D32" t="n">
-        <v>621.6</v>
+        <v>1083.5</v>
       </c>
       <c r="E32" t="n">
-        <v>17.1</v>
+        <v>13.7</v>
       </c>
       <c r="F32" t="n">
-        <v>13.2</v>
+        <v>10.8</v>
       </c>
       <c r="G32" t="n">
-        <v>18.8</v>
+        <v>18.3</v>
       </c>
       <c r="H32" t="n">
-        <v>72.7</v>
+        <v>127</v>
       </c>
       <c r="I32" t="n">
-        <v>16.9</v>
+        <v>14.8</v>
       </c>
       <c r="J32" t="n">
-        <v>17.2</v>
+        <v>17.7</v>
       </c>
       <c r="K32" t="n">
         <v>9.5</v>
       </c>
       <c r="L32" t="n">
-        <v>41</v>
+        <v>69.5</v>
       </c>
       <c r="M32" t="n">
-        <v>20.8</v>
+        <v>19.5</v>
       </c>
       <c r="N32" t="n">
-        <v>13.7</v>
+        <v>6.8</v>
       </c>
       <c r="O32" t="n">
-        <v>88.5</v>
+        <v>81.2</v>
       </c>
       <c r="P32" t="n">
-        <v>307.8</v>
+        <v>550.2</v>
       </c>
       <c r="Q32" t="n">
-        <v>14.7</v>
+        <v>10.6</v>
       </c>
       <c r="R32" t="n">
-        <v>20.9</v>
+        <v>18.3</v>
       </c>
       <c r="S32" t="n">
-        <v>337.8</v>
+        <v>337.6</v>
       </c>
       <c r="T32" t="n">
-        <v>1347</v>
+        <v>2351.5</v>
       </c>
       <c r="U32" t="n">
-        <v>21.8</v>
+        <v>19.7</v>
       </c>
       <c r="V32" t="n">
-        <v>25</v>
+        <v>23.8</v>
       </c>
       <c r="W32" t="n">
-        <v>221.1</v>
+        <v>228.6</v>
       </c>
       <c r="X32" t="n">
-        <v>925.5</v>
+        <v>1604.8</v>
       </c>
       <c r="Y32" t="n">
-        <v>24.9</v>
+        <v>23.7</v>
       </c>
       <c r="Z32" t="n">
         <v>26.1</v>
       </c>
       <c r="AA32" t="n">
-        <v>174.2</v>
+        <v>184.9</v>
       </c>
       <c r="AB32" t="n">
-        <v>725.4</v>
+        <v>1268</v>
       </c>
       <c r="AC32" t="n">
-        <v>26.2</v>
+        <v>25.4</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>152.7</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>9.600000000000001</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>81.20000000000005</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>337.5999999999999</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>228.5999999999999</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>184.9000000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>10.9</v>
+        <v>21.1</v>
       </c>
       <c r="C33" t="n">
-        <v>158.9</v>
+        <v>174.7</v>
       </c>
       <c r="D33" t="n">
-        <v>780.5</v>
+        <v>1258.2</v>
       </c>
       <c r="E33" t="n">
-        <v>15.8</v>
+        <v>14.7</v>
       </c>
       <c r="F33" t="n">
-        <v>15.4</v>
+        <v>10.6</v>
       </c>
       <c r="G33" t="n">
-        <v>18.2</v>
+        <v>18.5</v>
       </c>
       <c r="H33" t="n">
-        <v>90.8</v>
+        <v>145.5</v>
       </c>
       <c r="I33" t="n">
-        <v>16.6</v>
+        <v>14.3</v>
       </c>
       <c r="J33" t="n">
-        <v>19.1</v>
+        <v>17.3</v>
       </c>
       <c r="K33" t="n">
-        <v>9.4</v>
+        <v>10.4</v>
       </c>
       <c r="L33" t="n">
-        <v>50.4</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="M33" t="n">
-        <v>20.4</v>
+        <v>19.2</v>
       </c>
       <c r="N33" t="n">
-        <v>6</v>
+        <v>24.7</v>
       </c>
       <c r="O33" t="n">
-        <v>82.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="P33" t="n">
-        <v>390.8</v>
+        <v>648.9</v>
       </c>
       <c r="Q33" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="R33" t="n">
-        <v>16.8</v>
+        <v>23.3</v>
       </c>
       <c r="S33" t="n">
-        <v>336.5</v>
+        <v>364.5</v>
       </c>
       <c r="T33" t="n">
-        <v>1683.5</v>
+        <v>2716</v>
       </c>
       <c r="U33" t="n">
-        <v>20.8</v>
+        <v>20.2</v>
       </c>
       <c r="V33" t="n">
-        <v>21.4</v>
+        <v>24.1</v>
       </c>
       <c r="W33" t="n">
-        <v>226</v>
+        <v>236.9</v>
       </c>
       <c r="X33" t="n">
-        <v>1151.5</v>
+        <v>1841.7</v>
       </c>
       <c r="Y33" t="n">
-        <v>24.2</v>
+        <v>23.7</v>
       </c>
       <c r="Z33" t="n">
-        <v>22.7</v>
+        <v>25.3</v>
       </c>
       <c r="AA33" t="n">
-        <v>177.6</v>
+        <v>189.8</v>
       </c>
       <c r="AB33" t="n">
-        <v>903</v>
+        <v>1457.9</v>
       </c>
       <c r="AC33" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>174.7</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>10.40000000000001</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>98.69999999999993</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>364.5</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>236.9000000000001</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>189.9000000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7.1</v>
+        <v>5.3</v>
       </c>
       <c r="C34" t="n">
-        <v>150.3</v>
+        <v>166.9</v>
       </c>
       <c r="D34" t="n">
-        <v>930.8</v>
+        <v>1425.1</v>
       </c>
       <c r="E34" t="n">
-        <v>14.3</v>
+        <v>13.5</v>
       </c>
       <c r="F34" t="n">
-        <v>10.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>17.9</v>
+        <v>19.4</v>
       </c>
       <c r="H34" t="n">
-        <v>108.7</v>
+        <v>164.9</v>
       </c>
       <c r="I34" t="n">
-        <v>15.5</v>
+        <v>13.6</v>
       </c>
       <c r="J34" t="n">
-        <v>16.4</v>
+        <v>10.5</v>
       </c>
       <c r="K34" t="n">
-        <v>9.5</v>
+        <v>14.2</v>
       </c>
       <c r="L34" t="n">
-        <v>59.9</v>
+        <v>94</v>
       </c>
       <c r="M34" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="N34" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="O34" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="P34" t="n">
+        <v>737.8</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>17</v>
+      </c>
+      <c r="S34" t="n">
+        <v>373.5</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3089.5</v>
+      </c>
+      <c r="U34" t="n">
         <v>19.8</v>
       </c>
-      <c r="N34" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O34" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="P34" t="n">
-        <v>469</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="R34" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="S34" t="n">
-        <v>330.5</v>
-      </c>
-      <c r="T34" t="n">
-        <v>2013.9</v>
-      </c>
-      <c r="U34" t="n">
+      <c r="V34" t="n">
         <v>20</v>
       </c>
-      <c r="V34" t="n">
-        <v>20.9</v>
-      </c>
       <c r="W34" t="n">
-        <v>224.8</v>
+        <v>251.1</v>
       </c>
       <c r="X34" t="n">
-        <v>1376.2</v>
+        <v>2092.8</v>
       </c>
       <c r="Y34" t="n">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="Z34" t="n">
-        <v>24.4</v>
+        <v>28.7</v>
       </c>
       <c r="AA34" t="n">
-        <v>180.1</v>
+        <v>206.6</v>
       </c>
       <c r="AB34" t="n">
-        <v>1083.1</v>
+        <v>1664.4</v>
       </c>
       <c r="AC34" t="n">
-        <v>25.3</v>
+        <v>25.8</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>166.8999999999999</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>19.40000000000001</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>14.09999999999999</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>88.89999999999998</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>373.5</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>251.1000000000001</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>206.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>10.2</v>
+        <v>10.6</v>
       </c>
       <c r="C35" t="n">
-        <v>152.7</v>
+        <v>182</v>
       </c>
       <c r="D35" t="n">
-        <v>1083.5</v>
+        <v>1607.1</v>
       </c>
       <c r="E35" t="n">
-        <v>13.7</v>
+        <v>13.1</v>
       </c>
       <c r="F35" t="n">
-        <v>10.8</v>
+        <v>1.9</v>
       </c>
       <c r="G35" t="n">
-        <v>18.3</v>
+        <v>19.9</v>
       </c>
       <c r="H35" t="n">
-        <v>127</v>
+        <v>184.9</v>
       </c>
       <c r="I35" t="n">
-        <v>14.8</v>
+        <v>12.2</v>
       </c>
       <c r="J35" t="n">
-        <v>17.7</v>
+        <v>13.4</v>
       </c>
       <c r="K35" t="n">
-        <v>9.5</v>
+        <v>11.8</v>
       </c>
       <c r="L35" t="n">
-        <v>69.5</v>
+        <v>105.8</v>
       </c>
       <c r="M35" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="N35" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="O35" t="n">
+        <v>91</v>
+      </c>
+      <c r="P35" t="n">
+        <v>828.8</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="R35" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>388.3</v>
+      </c>
+      <c r="T35" t="n">
+        <v>3477.8</v>
+      </c>
+      <c r="U35" t="n">
         <v>19.5</v>
       </c>
-      <c r="N35" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="O35" t="n">
-        <v>81.2</v>
-      </c>
-      <c r="P35" t="n">
-        <v>550.2</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="R35" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="S35" t="n">
-        <v>337.6</v>
-      </c>
-      <c r="T35" t="n">
-        <v>2351.5</v>
-      </c>
-      <c r="U35" t="n">
-        <v>19.7</v>
-      </c>
       <c r="V35" t="n">
-        <v>23.8</v>
+        <v>22.8</v>
       </c>
       <c r="W35" t="n">
-        <v>228.6</v>
+        <v>265.5</v>
       </c>
       <c r="X35" t="n">
-        <v>1604.8</v>
+        <v>2358.3</v>
       </c>
       <c r="Y35" t="n">
-        <v>23.7</v>
+        <v>23.2</v>
       </c>
       <c r="Z35" t="n">
-        <v>26.1</v>
+        <v>24.3</v>
       </c>
       <c r="AA35" t="n">
-        <v>184.9</v>
+        <v>206.2</v>
       </c>
       <c r="AB35" t="n">
-        <v>1268</v>
+        <v>1870.7</v>
       </c>
       <c r="AC35" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>182</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>91</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>388.3000000000002</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>206.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>21.1</v>
+        <v>7.4</v>
       </c>
       <c r="C36" t="n">
-        <v>174.7</v>
+        <v>169.9</v>
       </c>
       <c r="D36" t="n">
-        <v>1258.2</v>
+        <v>1777</v>
       </c>
       <c r="E36" t="n">
-        <v>14.7</v>
+        <v>12.6</v>
       </c>
       <c r="F36" t="n">
-        <v>10.6</v>
+        <v>8.1</v>
       </c>
       <c r="G36" t="n">
-        <v>18.5</v>
+        <v>19.7</v>
       </c>
       <c r="H36" t="n">
-        <v>145.5</v>
+        <v>204.5</v>
       </c>
       <c r="I36" t="n">
-        <v>14.3</v>
+        <v>11.8</v>
       </c>
       <c r="J36" t="n">
-        <v>17.3</v>
+        <v>10.4</v>
       </c>
       <c r="K36" t="n">
-        <v>10.4</v>
+        <v>10.7</v>
       </c>
       <c r="L36" t="n">
-        <v>79.90000000000001</v>
+        <v>116.5</v>
       </c>
       <c r="M36" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O36" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="P36" t="n">
+        <v>918.5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>370.5</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3848.2</v>
+      </c>
+      <c r="U36" t="n">
         <v>19.2</v>
       </c>
-      <c r="N36" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="O36" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="P36" t="n">
-        <v>648.9</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="S36" t="n">
-        <v>364.5</v>
-      </c>
-      <c r="T36" t="n">
-        <v>2716</v>
-      </c>
-      <c r="U36" t="n">
-        <v>20.2</v>
-      </c>
       <c r="V36" t="n">
-        <v>24.1</v>
+        <v>20.9</v>
       </c>
       <c r="W36" t="n">
-        <v>236.9</v>
+        <v>250.4</v>
       </c>
       <c r="X36" t="n">
-        <v>1841.7</v>
+        <v>2608.7</v>
       </c>
       <c r="Y36" t="n">
-        <v>23.7</v>
+        <v>23</v>
       </c>
       <c r="Z36" t="n">
-        <v>25.3</v>
+        <v>24.6</v>
       </c>
       <c r="AA36" t="n">
-        <v>189.8</v>
+        <v>200.6</v>
       </c>
       <c r="AB36" t="n">
-        <v>1457.9</v>
+        <v>2071.3</v>
       </c>
       <c r="AC36" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>169.9000000000001</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>19.59999999999999</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>89.70000000000005</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>370.3999999999996</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>250.3999999999996</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>200.6000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.3</v>
+        <v>9.1</v>
       </c>
       <c r="C37" t="n">
-        <v>166.9</v>
+        <v>178.3</v>
       </c>
       <c r="D37" t="n">
-        <v>1425.1</v>
+        <v>1955.3</v>
       </c>
       <c r="E37" t="n">
-        <v>13.5</v>
+        <v>12.2</v>
       </c>
       <c r="F37" t="n">
-        <v>9.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="G37" t="n">
-        <v>19.4</v>
+        <v>24.6</v>
       </c>
       <c r="H37" t="n">
-        <v>164.9</v>
+        <v>229.1</v>
       </c>
       <c r="I37" t="n">
-        <v>13.6</v>
+        <v>12</v>
       </c>
       <c r="J37" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="K37" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="L37" t="n">
+        <v>127.9</v>
+      </c>
+      <c r="M37" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="N37" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O37" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1003.2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="R37" t="n">
         <v>14.2</v>
       </c>
-      <c r="L37" t="n">
-        <v>94</v>
-      </c>
-      <c r="M37" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="N37" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="O37" t="n">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="P37" t="n">
-        <v>737.8</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>17</v>
-      </c>
       <c r="S37" t="n">
-        <v>373.5</v>
+        <v>384.5</v>
       </c>
       <c r="T37" t="n">
-        <v>3089.5</v>
+        <v>4232.8</v>
       </c>
       <c r="U37" t="n">
-        <v>19.8</v>
+        <v>18.7</v>
       </c>
       <c r="V37" t="n">
-        <v>20</v>
+        <v>17.4</v>
       </c>
       <c r="W37" t="n">
-        <v>251.1</v>
+        <v>263.9</v>
       </c>
       <c r="X37" t="n">
-        <v>2092.8</v>
+        <v>2872.7</v>
       </c>
       <c r="Y37" t="n">
-        <v>23.3</v>
+        <v>22.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>28.7</v>
+        <v>19</v>
       </c>
       <c r="AA37" t="n">
-        <v>206.6</v>
+        <v>206.2</v>
       </c>
       <c r="AB37" t="n">
-        <v>1664.4</v>
+        <v>2277.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>25.8</v>
+        <v>24.9</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>178.3</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>24.59999999999999</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>11.40000000000001</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>84.70000000000005</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>384.6000000000004</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>264</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>206.1999999999998</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.2</v>
+        <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>222.3</v>
+        <v>185.9</v>
       </c>
       <c r="D38" t="n">
-        <v>1864.1</v>
+        <v>185.9</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="G38" t="n">
-        <v>23.3</v>
+        <v>21.1</v>
       </c>
       <c r="H38" t="n">
-        <v>209.5</v>
+        <v>21.1</v>
       </c>
       <c r="I38" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="J38" t="n">
-        <v>22.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K38" t="n">
-        <v>15.7</v>
+        <v>12.4</v>
       </c>
       <c r="L38" t="n">
-        <v>121.9</v>
+        <v>12.4</v>
       </c>
       <c r="M38" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.2</v>
+        <v>-3.3</v>
       </c>
       <c r="O38" t="n">
-        <v>110.3</v>
+        <v>85.5</v>
       </c>
       <c r="P38" t="n">
-        <v>950</v>
+        <v>85.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>-1</v>
+        <v>-3.3</v>
       </c>
       <c r="R38" t="n">
-        <v>10.3</v>
+        <v>11.8</v>
       </c>
       <c r="S38" t="n">
-        <v>467.4</v>
+        <v>417.5</v>
       </c>
       <c r="T38" t="n">
-        <v>4111.4</v>
+        <v>417.5</v>
       </c>
       <c r="U38" t="n">
-        <v>8.300000000000001</v>
+        <v>11.8</v>
       </c>
       <c r="V38" t="n">
-        <v>14.5</v>
+        <v>17.8</v>
       </c>
       <c r="W38" t="n">
-        <v>318.1</v>
+        <v>298.5</v>
       </c>
       <c r="X38" t="n">
-        <v>2830</v>
+        <v>298.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>12.2</v>
+        <v>17.8</v>
       </c>
       <c r="Z38" t="n">
-        <v>14.3</v>
+        <v>21.1</v>
       </c>
       <c r="AA38" t="n">
-        <v>245.1</v>
+        <v>231.6</v>
       </c>
       <c r="AB38" t="n">
-        <v>2247.3</v>
+        <v>231.6</v>
       </c>
       <c r="AC38" t="n">
-        <v>13.9</v>
+        <v>21.1</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>185.9</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>417.5</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>298.5</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>231.6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7.8</v>
+        <v>0.4</v>
       </c>
       <c r="C39" t="n">
-        <v>210.1</v>
+        <v>157.9</v>
       </c>
       <c r="D39" t="n">
-        <v>2074.7</v>
+        <v>343.8</v>
       </c>
       <c r="E39" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="F39" t="n">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="G39" t="n">
-        <v>23.6</v>
+        <v>18.5</v>
       </c>
       <c r="H39" t="n">
-        <v>233.1</v>
+        <v>39.6</v>
       </c>
       <c r="I39" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J39" t="n">
-        <v>17.4</v>
+        <v>1.9</v>
       </c>
       <c r="K39" t="n">
-        <v>13.7</v>
+        <v>11.1</v>
       </c>
       <c r="L39" t="n">
-        <v>135.5</v>
+        <v>23.5</v>
       </c>
       <c r="M39" t="n">
-        <v>11.2</v>
+        <v>5.5</v>
       </c>
       <c r="N39" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="O39" t="n">
-        <v>107.4</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="P39" t="n">
-        <v>1057.6</v>
+        <v>162.1</v>
       </c>
       <c r="Q39" t="n">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="R39" t="n">
-        <v>9.1</v>
+        <v>6.1</v>
       </c>
       <c r="S39" t="n">
-        <v>444.1</v>
+        <v>371.9</v>
       </c>
       <c r="T39" t="n">
-        <v>4556.7</v>
+        <v>789.4</v>
       </c>
       <c r="U39" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="V39" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="W39" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="X39" t="n">
+        <v>564.2</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="Z39" t="n">
         <v>10.7</v>
       </c>
-      <c r="W39" t="n">
-        <v>299.5</v>
-      </c>
-      <c r="X39" t="n">
-        <v>3130.5</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>10.3</v>
-      </c>
       <c r="AA39" t="n">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="AB39" t="n">
-        <v>2482</v>
+        <v>445.6</v>
       </c>
       <c r="AC39" t="n">
-        <v>13.6</v>
+        <v>15.9</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>157.9</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>371.9</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>214</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>12.1</v>
+        <v>-0.7</v>
       </c>
       <c r="C40" t="n">
-        <v>231.3</v>
+        <v>170.2</v>
       </c>
       <c r="D40" t="n">
-        <v>2305.1</v>
+        <v>512.3</v>
       </c>
       <c r="E40" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>8.9</v>
+        <v>2.8</v>
       </c>
       <c r="G40" t="n">
-        <v>31.8</v>
+        <v>19.9</v>
       </c>
       <c r="H40" t="n">
-        <v>264.8</v>
+        <v>59.8</v>
       </c>
       <c r="I40" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="J40" t="n">
-        <v>14.9</v>
+        <v>6.5</v>
       </c>
       <c r="K40" t="n">
-        <v>14.2</v>
+        <v>11.1</v>
       </c>
       <c r="L40" t="n">
-        <v>149.8</v>
+        <v>34.5</v>
       </c>
       <c r="M40" t="n">
-        <v>11.5</v>
+        <v>5.6</v>
       </c>
       <c r="N40" t="n">
-        <v>10.4</v>
+        <v>-2.6</v>
       </c>
       <c r="O40" t="n">
-        <v>110.8</v>
+        <v>92.2</v>
       </c>
       <c r="P40" t="n">
-        <v>1168.1</v>
+        <v>251.7</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.5</v>
+        <v>-2.3</v>
       </c>
       <c r="R40" t="n">
-        <v>12.6</v>
+        <v>4.6</v>
       </c>
       <c r="S40" t="n">
-        <v>489.6</v>
+        <v>390.3</v>
       </c>
       <c r="T40" t="n">
-        <v>5045</v>
+        <v>1177.2</v>
       </c>
       <c r="U40" t="n">
-        <v>8.800000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="V40" t="n">
-        <v>13.7</v>
+        <v>7.3</v>
       </c>
       <c r="W40" t="n">
-        <v>332.7</v>
+        <v>267.2</v>
       </c>
       <c r="X40" t="n">
-        <v>3462.4</v>
+        <v>831.3</v>
       </c>
       <c r="Y40" t="n">
-        <v>12.3</v>
+        <v>10.7</v>
       </c>
       <c r="Z40" t="n">
-        <v>13.2</v>
+        <v>9.1</v>
       </c>
       <c r="AA40" t="n">
-        <v>258.4</v>
+        <v>220.1</v>
       </c>
       <c r="AB40" t="n">
-        <v>2739.9</v>
+        <v>664.9</v>
       </c>
       <c r="AC40" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>168.4999999999999</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>387.8000000000001</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>267.0999999999999</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>219.3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2009年1月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B41" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="D41" t="n">
+        <v>692.4</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="G41" t="n">
+        <v>20</v>
+      </c>
+      <c r="H41" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="I41" t="n">
         <v>2</v>
       </c>
-      <c r="C41" t="n">
-        <v>185.9</v>
-      </c>
-      <c r="D41" t="n">
-        <v>185.9</v>
-      </c>
-      <c r="E41" t="n">
-        <v>2</v>
-      </c>
-      <c r="F41" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="G41" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>4.5</v>
-      </c>
       <c r="J41" t="n">
-        <v>8.800000000000001</v>
+        <v>10.6</v>
       </c>
       <c r="K41" t="n">
-        <v>12.4</v>
+        <v>10.7</v>
       </c>
       <c r="L41" t="n">
-        <v>12.4</v>
+        <v>45.2</v>
       </c>
       <c r="M41" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="N41" t="n">
-        <v>-3.3</v>
+        <v>-2.9</v>
       </c>
       <c r="O41" t="n">
-        <v>85.5</v>
+        <v>96.8</v>
       </c>
       <c r="P41" t="n">
-        <v>85.5</v>
+        <v>344</v>
       </c>
       <c r="Q41" t="n">
-        <v>-3.3</v>
+        <v>-2.7</v>
       </c>
       <c r="R41" t="n">
-        <v>11.8</v>
+        <v>5.3</v>
       </c>
       <c r="S41" t="n">
-        <v>417.5</v>
+        <v>381.6</v>
       </c>
       <c r="T41" t="n">
-        <v>417.5</v>
+        <v>1550.9</v>
       </c>
       <c r="U41" t="n">
-        <v>11.8</v>
+        <v>6.7</v>
       </c>
       <c r="V41" t="n">
-        <v>17.8</v>
+        <v>9.1</v>
       </c>
       <c r="W41" t="n">
-        <v>298.5</v>
+        <v>254.1</v>
       </c>
       <c r="X41" t="n">
-        <v>298.5</v>
+        <v>1082</v>
       </c>
       <c r="Y41" t="n">
-        <v>17.8</v>
+        <v>10.4</v>
       </c>
       <c r="Z41" t="n">
-        <v>21.1</v>
+        <v>11.6</v>
       </c>
       <c r="AA41" t="n">
-        <v>231.6</v>
+        <v>203.1</v>
       </c>
       <c r="AB41" t="n">
-        <v>231.6</v>
+        <v>858.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>21.1</v>
+        <v>13.1</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>180.1</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>92.30000000000001</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>373.7</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>250.7</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>193.6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>157.9</v>
+        <v>183.2</v>
       </c>
       <c r="D42" t="n">
-        <v>343.8</v>
+        <v>881.9</v>
       </c>
       <c r="E42" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="F42" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="G42" t="n">
-        <v>18.5</v>
+        <v>20.1</v>
       </c>
       <c r="H42" t="n">
-        <v>39.6</v>
+        <v>100.6</v>
       </c>
       <c r="I42" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="J42" t="n">
-        <v>1.9</v>
+        <v>12.5</v>
       </c>
       <c r="K42" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="L42" t="n">
-        <v>23.5</v>
+        <v>56</v>
       </c>
       <c r="M42" t="n">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="N42" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="O42" t="n">
-        <v>76.59999999999999</v>
+        <v>94.3</v>
       </c>
       <c r="P42" t="n">
-        <v>162.1</v>
+        <v>442</v>
       </c>
       <c r="Q42" t="n">
-        <v>-0.2</v>
+        <v>-1.2</v>
       </c>
       <c r="R42" t="n">
-        <v>6.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S42" t="n">
-        <v>371.9</v>
+        <v>406.3</v>
       </c>
       <c r="T42" t="n">
-        <v>789.4</v>
+        <v>1969.2</v>
       </c>
       <c r="U42" t="n">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="V42" t="n">
-        <v>7.3</v>
+        <v>12.3</v>
       </c>
       <c r="W42" t="n">
-        <v>265.7</v>
+        <v>281</v>
       </c>
       <c r="X42" t="n">
-        <v>564.2</v>
+        <v>1370.6</v>
       </c>
       <c r="Y42" t="n">
-        <v>12.6</v>
+        <v>11.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>10.7</v>
+        <v>14.2</v>
       </c>
       <c r="AA42" t="n">
-        <v>214</v>
+        <v>223.1</v>
       </c>
       <c r="AB42" t="n">
-        <v>445.6</v>
+        <v>1087.3</v>
       </c>
       <c r="AC42" t="n">
-        <v>15.9</v>
+        <v>14.2</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>189.5</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>98</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>418.3</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>288.5999999999999</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>228.8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.7</v>
+        <v>5.8</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2</v>
+        <v>179.2</v>
       </c>
       <c r="D43" t="n">
-        <v>512.3</v>
+        <v>1061.6</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="F43" t="n">
-        <v>2.8</v>
+        <v>7.4</v>
       </c>
       <c r="G43" t="n">
-        <v>19.9</v>
+        <v>21.1</v>
       </c>
       <c r="H43" t="n">
-        <v>59.8</v>
+        <v>121.8</v>
       </c>
       <c r="I43" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="J43" t="n">
-        <v>6.5</v>
+        <v>11.7</v>
       </c>
       <c r="K43" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="L43" t="n">
-        <v>34.5</v>
+        <v>67.3</v>
       </c>
       <c r="M43" t="n">
-        <v>5.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="N43" t="n">
-        <v>-2.6</v>
+        <v>2</v>
       </c>
       <c r="O43" t="n">
-        <v>92.2</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="P43" t="n">
-        <v>251.7</v>
+        <v>535.1</v>
       </c>
       <c r="Q43" t="n">
-        <v>-2.3</v>
+        <v>-0.6</v>
       </c>
       <c r="R43" t="n">
-        <v>4.6</v>
+        <v>10.1</v>
       </c>
       <c r="S43" t="n">
-        <v>390.3</v>
+        <v>399.7</v>
       </c>
       <c r="T43" t="n">
-        <v>1177.2</v>
+        <v>2370.2</v>
       </c>
       <c r="U43" t="n">
-        <v>7.1</v>
+        <v>8.4</v>
       </c>
       <c r="V43" t="n">
-        <v>7.3</v>
+        <v>13.2</v>
       </c>
       <c r="W43" t="n">
-        <v>267.2</v>
+        <v>274.5</v>
       </c>
       <c r="X43" t="n">
-        <v>831.3</v>
+        <v>1646</v>
       </c>
       <c r="Y43" t="n">
-        <v>10.7</v>
+        <v>12</v>
       </c>
       <c r="Z43" t="n">
-        <v>9.1</v>
+        <v>13.8</v>
       </c>
       <c r="AA43" t="n">
-        <v>220.1</v>
+        <v>220.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>664.9</v>
+        <v>1308.7</v>
       </c>
       <c r="AC43" t="n">
-        <v>13.3</v>
+        <v>14.3</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>179.6999999999999</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>93.10000000000002</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>400.9999999999998</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>275.4000000000001</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>221.4000000000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-1.1</v>
+        <v>4.7</v>
       </c>
       <c r="C44" t="n">
-        <v>178.5</v>
+        <v>182.6</v>
       </c>
       <c r="D44" t="n">
-        <v>692.4</v>
+        <v>1244.3</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.2</v>
+        <v>2.3</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.5</v>
+        <v>2.3</v>
       </c>
       <c r="G44" t="n">
-        <v>20</v>
+        <v>21.2</v>
       </c>
       <c r="H44" t="n">
-        <v>79.8</v>
+        <v>143.1</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="J44" t="n">
-        <v>10.6</v>
+        <v>11.3</v>
       </c>
       <c r="K44" t="n">
-        <v>10.7</v>
+        <v>11.2</v>
       </c>
       <c r="L44" t="n">
-        <v>45.2</v>
+        <v>78.5</v>
       </c>
       <c r="M44" t="n">
-        <v>8.6</v>
+        <v>9.9</v>
       </c>
       <c r="N44" t="n">
-        <v>-2.9</v>
+        <v>3.3</v>
       </c>
       <c r="O44" t="n">
-        <v>96.8</v>
+        <v>98.5</v>
       </c>
       <c r="P44" t="n">
-        <v>344</v>
+        <v>633.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>-2.7</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>5.3</v>
+        <v>9</v>
       </c>
       <c r="S44" t="n">
-        <v>381.6</v>
+        <v>408.7</v>
       </c>
       <c r="T44" t="n">
-        <v>1550.9</v>
+        <v>2778.6</v>
       </c>
       <c r="U44" t="n">
-        <v>6.7</v>
+        <v>8.5</v>
       </c>
       <c r="V44" t="n">
-        <v>9.1</v>
+        <v>11.6</v>
       </c>
       <c r="W44" t="n">
-        <v>254.1</v>
+        <v>277.7</v>
       </c>
       <c r="X44" t="n">
-        <v>1082</v>
+        <v>1923.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>10.4</v>
+        <v>11.9</v>
       </c>
       <c r="Z44" t="n">
-        <v>11.6</v>
+        <v>12.7</v>
       </c>
       <c r="AA44" t="n">
-        <v>203.1</v>
+        <v>226.1</v>
       </c>
       <c r="AB44" t="n">
-        <v>858.5</v>
+        <v>1534.3</v>
       </c>
       <c r="AC44" t="n">
-        <v>13.1</v>
+        <v>14.1</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>182.7</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>98.39999999999998</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>408.4000000000001</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>277.5</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>225.5999999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3</v>
+        <v>-4.4</v>
       </c>
       <c r="C45" t="n">
-        <v>183.2</v>
+        <v>195.2</v>
       </c>
       <c r="D45" t="n">
-        <v>881.9</v>
+        <v>1439.4</v>
       </c>
       <c r="E45" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="F45" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G45" t="n">
-        <v>20.1</v>
+        <v>21.5</v>
       </c>
       <c r="H45" t="n">
-        <v>100.6</v>
+        <v>164.6</v>
       </c>
       <c r="I45" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="J45" t="n">
-        <v>12.5</v>
+        <v>2.2</v>
       </c>
       <c r="K45" t="n">
-        <v>10.8</v>
+        <v>11.6</v>
       </c>
       <c r="L45" t="n">
-        <v>56</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="M45" t="n">
-        <v>9.5</v>
+        <v>8.9</v>
       </c>
       <c r="N45" t="n">
-        <v>0.5</v>
+        <v>-12</v>
       </c>
       <c r="O45" t="n">
-        <v>94.3</v>
+        <v>105</v>
       </c>
       <c r="P45" t="n">
-        <v>442</v>
+        <v>738.6</v>
       </c>
       <c r="Q45" t="n">
-        <v>-1.2</v>
+        <v>-1.8</v>
       </c>
       <c r="R45" t="n">
-        <v>8.800000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="S45" t="n">
-        <v>406.3</v>
+        <v>427.9</v>
       </c>
       <c r="T45" t="n">
-        <v>1969.2</v>
+        <v>3205.1</v>
       </c>
       <c r="U45" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="V45" t="n">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="W45" t="n">
-        <v>281</v>
+        <v>289.7</v>
       </c>
       <c r="X45" t="n">
-        <v>1370.6</v>
+        <v>2211.8</v>
       </c>
       <c r="Y45" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z45" t="n">
-        <v>14.2</v>
+        <v>13.8</v>
       </c>
       <c r="AA45" t="n">
-        <v>223.1</v>
+        <v>232.7</v>
       </c>
       <c r="AB45" t="n">
-        <v>1087.3</v>
+        <v>1765.7</v>
       </c>
       <c r="AC45" t="n">
-        <v>14.2</v>
+        <v>14</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>195.1000000000001</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>11.59999999999999</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>105.1</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>426.5</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>288.3000000000002</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>231.4000000000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5.8</v>
+        <v>4.6</v>
       </c>
       <c r="C46" t="n">
-        <v>179.2</v>
+        <v>202.3</v>
       </c>
       <c r="D46" t="n">
-        <v>1061.6</v>
+        <v>1641.8</v>
       </c>
       <c r="E46" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="F46" t="n">
-        <v>7.4</v>
+        <v>-2.6</v>
       </c>
       <c r="G46" t="n">
-        <v>21.1</v>
+        <v>21.5</v>
       </c>
       <c r="H46" t="n">
-        <v>121.8</v>
+        <v>186.2</v>
       </c>
       <c r="I46" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="J46" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="K46" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="L46" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="M46" t="n">
+        <v>9</v>
+      </c>
+      <c r="N46" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O46" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="P46" t="n">
+        <v>839.8</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="S46" t="n">
+        <v>438.5</v>
+      </c>
+      <c r="T46" t="n">
+        <v>3643.8</v>
+      </c>
+      <c r="U46" t="n">
+        <v>8</v>
+      </c>
+      <c r="V46" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="W46" t="n">
+        <v>299.5</v>
+      </c>
+      <c r="X46" t="n">
+        <v>2511.5</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="Z46" t="n">
         <v>11.7</v>
       </c>
-      <c r="K46" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="L46" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="M46" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="N46" t="n">
-        <v>2</v>
-      </c>
-      <c r="O46" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="P46" t="n">
-        <v>535.1</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="R46" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="S46" t="n">
-        <v>399.7</v>
-      </c>
-      <c r="T46" t="n">
-        <v>2370.2</v>
-      </c>
-      <c r="U46" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="V46" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="W46" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="X46" t="n">
-        <v>1646</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z46" t="n">
+      <c r="AA46" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>2002</v>
+      </c>
+      <c r="AC46" t="n">
         <v>13.8</v>
       </c>
-      <c r="AA46" t="n">
-        <v>220.5</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>1308.7</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>14.3</v>
+      <c r="AD46" t="n">
+        <v>202.3999999999999</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>21.59999999999999</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>101.1999999999999</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>438.7000000000003</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>299.6999999999998</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>236.3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="C47" t="n">
-        <v>182.6</v>
+        <v>222.3</v>
       </c>
       <c r="D47" t="n">
-        <v>1244.3</v>
+        <v>1864.1</v>
       </c>
       <c r="E47" t="n">
         <v>2.3</v>
       </c>
       <c r="F47" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="G47" t="n">
-        <v>21.2</v>
+        <v>23.3</v>
       </c>
       <c r="H47" t="n">
-        <v>143.1</v>
+        <v>209.5</v>
       </c>
       <c r="I47" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="J47" t="n">
-        <v>11.3</v>
+        <v>22.9</v>
       </c>
       <c r="K47" t="n">
-        <v>11.2</v>
+        <v>15.7</v>
       </c>
       <c r="L47" t="n">
-        <v>78.5</v>
+        <v>121.9</v>
       </c>
       <c r="M47" t="n">
-        <v>9.9</v>
+        <v>10.5</v>
       </c>
       <c r="N47" t="n">
-        <v>3.3</v>
+        <v>-0.2</v>
       </c>
       <c r="O47" t="n">
-        <v>98.5</v>
+        <v>110.3</v>
       </c>
       <c r="P47" t="n">
-        <v>633.5</v>
+        <v>950</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R47" t="n">
-        <v>9</v>
+        <v>10.3</v>
       </c>
       <c r="S47" t="n">
-        <v>408.7</v>
+        <v>467.4</v>
       </c>
       <c r="T47" t="n">
-        <v>2778.6</v>
+        <v>4111.4</v>
       </c>
       <c r="U47" t="n">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="V47" t="n">
-        <v>11.6</v>
+        <v>14.5</v>
       </c>
       <c r="W47" t="n">
-        <v>277.7</v>
+        <v>318.1</v>
       </c>
       <c r="X47" t="n">
-        <v>1923.5</v>
+        <v>2830</v>
       </c>
       <c r="Y47" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="Z47" t="n">
-        <v>12.7</v>
+        <v>14.3</v>
       </c>
       <c r="AA47" t="n">
-        <v>226.1</v>
+        <v>245.1</v>
       </c>
       <c r="AB47" t="n">
-        <v>1534.3</v>
+        <v>2247.3</v>
       </c>
       <c r="AC47" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>222.3</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>23.30000000000001</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>15.60000000000001</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>110.2</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>467.5999999999995</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>318.5</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>245.3000000000002</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-4.4</v>
+        <v>7.8</v>
       </c>
       <c r="C48" t="n">
-        <v>195.2</v>
+        <v>210.1</v>
       </c>
       <c r="D48" t="n">
-        <v>1439.4</v>
+        <v>2074.7</v>
       </c>
       <c r="E48" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="F48" t="n">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="G48" t="n">
-        <v>21.5</v>
+        <v>23.6</v>
       </c>
       <c r="H48" t="n">
-        <v>164.6</v>
+        <v>233.1</v>
       </c>
       <c r="I48" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="J48" t="n">
-        <v>2.2</v>
+        <v>17.4</v>
       </c>
       <c r="K48" t="n">
-        <v>11.6</v>
+        <v>13.7</v>
       </c>
       <c r="L48" t="n">
-        <v>90.09999999999999</v>
+        <v>135.5</v>
       </c>
       <c r="M48" t="n">
-        <v>8.9</v>
+        <v>11.2</v>
       </c>
       <c r="N48" t="n">
-        <v>-12</v>
+        <v>4.5</v>
       </c>
       <c r="O48" t="n">
-        <v>105</v>
+        <v>107.4</v>
       </c>
       <c r="P48" t="n">
-        <v>738.6</v>
+        <v>1057.6</v>
       </c>
       <c r="Q48" t="n">
-        <v>-1.8</v>
+        <v>-0.4</v>
       </c>
       <c r="R48" t="n">
-        <v>4.7</v>
+        <v>9.1</v>
       </c>
       <c r="S48" t="n">
-        <v>427.9</v>
+        <v>444.1</v>
       </c>
       <c r="T48" t="n">
-        <v>3205.1</v>
+        <v>4556.7</v>
       </c>
       <c r="U48" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="V48" t="n">
-        <v>12.7</v>
+        <v>10.7</v>
       </c>
       <c r="W48" t="n">
-        <v>289.7</v>
+        <v>299.5</v>
       </c>
       <c r="X48" t="n">
-        <v>2211.8</v>
+        <v>3130.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="Z48" t="n">
-        <v>13.8</v>
+        <v>10.3</v>
       </c>
       <c r="AA48" t="n">
-        <v>232.7</v>
+        <v>234</v>
       </c>
       <c r="AB48" t="n">
-        <v>1765.7</v>
+        <v>2482</v>
       </c>
       <c r="AC48" t="n">
-        <v>14</v>
+        <v>13.6</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>210.5999999999999</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>23.59999999999999</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>13.59999999999999</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>107.5999999999999</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>445.3000000000002</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>300.5</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>234.6999999999998</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4.6</v>
+        <v>12.1</v>
       </c>
       <c r="C49" t="n">
-        <v>202.3</v>
+        <v>231.3</v>
       </c>
       <c r="D49" t="n">
-        <v>1641.8</v>
+        <v>2305.1</v>
       </c>
       <c r="E49" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.6</v>
+        <v>8.9</v>
       </c>
       <c r="G49" t="n">
-        <v>21.5</v>
+        <v>31.8</v>
       </c>
       <c r="H49" t="n">
-        <v>186.2</v>
+        <v>264.8</v>
       </c>
       <c r="I49" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="J49" t="n">
-        <v>10.3</v>
+        <v>14.9</v>
       </c>
       <c r="K49" t="n">
-        <v>16.3</v>
+        <v>14.2</v>
       </c>
       <c r="L49" t="n">
-        <v>106.3</v>
+        <v>149.8</v>
       </c>
       <c r="M49" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="N49" t="n">
-        <v>4.5</v>
+        <v>10.4</v>
       </c>
       <c r="O49" t="n">
-        <v>101.1</v>
+        <v>110.8</v>
       </c>
       <c r="P49" t="n">
-        <v>839.8</v>
+        <v>1168.1</v>
       </c>
       <c r="Q49" t="n">
-        <v>-1.1</v>
+        <v>0.5</v>
       </c>
       <c r="R49" t="n">
-        <v>8.300000000000001</v>
+        <v>12.6</v>
       </c>
       <c r="S49" t="n">
-        <v>438.5</v>
+        <v>489.6</v>
       </c>
       <c r="T49" t="n">
-        <v>3643.8</v>
+        <v>5045</v>
       </c>
       <c r="U49" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="V49" t="n">
-        <v>10.5</v>
+        <v>13.7</v>
       </c>
       <c r="W49" t="n">
-        <v>299.5</v>
+        <v>332.7</v>
       </c>
       <c r="X49" t="n">
-        <v>2511.5</v>
+        <v>3462.4</v>
       </c>
       <c r="Y49" t="n">
-        <v>11.9</v>
+        <v>12.3</v>
       </c>
       <c r="Z49" t="n">
-        <v>11.7</v>
+        <v>13.2</v>
       </c>
       <c r="AA49" t="n">
-        <v>236.1</v>
+        <v>258.4</v>
       </c>
       <c r="AB49" t="n">
-        <v>2002</v>
+        <v>2739.9</v>
       </c>
       <c r="AC49" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>230.4000000000001</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>31.70000000000002</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>14.30000000000001</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>110.5</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>488.3000000000002</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>331.9000000000001</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>257.9000000000001</v>
       </c>
     </row>
   </sheetData>
